--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Fundamente de la Priorización</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:EstadoInterconsultaCodigo</t>
@@ -4174,7 +4177,7 @@
         <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4246,7 +4249,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -4257,13 +4260,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>40</v>
@@ -4285,13 +4288,13 @@
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4374,13 +4377,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>40</v>
@@ -4402,13 +4405,13 @@
         <v>40</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4491,13 +4494,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>40</v>
@@ -4519,13 +4522,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4608,13 +4611,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>40</v>
@@ -4636,13 +4639,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4725,13 +4728,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>40</v>
@@ -4753,13 +4756,13 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4842,14 +4845,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4871,16 +4874,16 @@
         <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4929,7 +4932,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4961,10 +4964,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4987,16 +4990,16 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5046,7 +5049,7 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5061,27 +5064,27 @@
         <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5104,13 +5107,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5161,7 +5164,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -5182,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -5193,14 +5196,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5222,13 +5225,13 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5269,7 +5272,7 @@
         <v>97</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>40</v>
@@ -5278,7 +5281,7 @@
         <v>98</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5299,7 +5302,7 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -5310,10 +5313,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5339,16 +5342,16 @@
         <v>69</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5373,13 +5376,13 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>40</v>
@@ -5397,7 +5400,7 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5418,7 +5421,7 @@
         <v>92</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -5429,10 +5432,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5455,19 +5458,19 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5492,13 +5495,13 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>40</v>
@@ -5516,7 +5519,7 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5534,10 +5537,10 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>40</v>
@@ -5548,10 +5551,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5574,13 +5577,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5631,7 +5634,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5652,7 +5655,7 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5663,14 +5666,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5692,13 +5695,13 @@
         <v>94</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5739,7 +5742,7 @@
         <v>97</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
@@ -5748,7 +5751,7 @@
         <v>98</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5769,7 +5772,7 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>40</v>
@@ -5780,10 +5783,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5806,19 +5809,19 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
@@ -5843,11 +5846,11 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>40</v>
@@ -5865,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5883,10 +5886,10 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
@@ -5897,10 +5900,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5923,13 +5926,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5980,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -6001,7 +6004,7 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>40</v>
@@ -6012,14 +6015,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6041,13 +6044,13 @@
         <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6088,7 +6091,7 @@
         <v>97</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>40</v>
@@ -6097,7 +6100,7 @@
         <v>98</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -6118,7 +6121,7 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6158,16 +6161,16 @@
         <v>63</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6216,7 +6219,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6234,10 +6237,10 @@
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -6248,10 +6251,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6274,16 +6277,16 @@
         <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6333,7 +6336,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6351,10 +6354,10 @@
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6394,14 +6397,14 @@
         <v>69</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6411,7 +6414,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -6450,7 +6453,7 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6468,10 +6471,10 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -6482,10 +6485,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6508,17 +6511,17 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6567,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6585,10 +6588,10 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -6599,10 +6602,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6625,19 +6628,19 @@
         <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6686,7 +6689,7 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6704,10 +6707,10 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>40</v>
@@ -6718,10 +6721,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6744,19 +6747,19 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6805,7 +6808,7 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6823,10 +6826,10 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>40</v>
@@ -6837,10 +6840,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6866,16 +6869,16 @@
         <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6888,7 +6891,7 @@
         <v>40</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>40</v>
@@ -6924,7 +6927,7 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6942,10 +6945,10 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>40</v>
@@ -6956,10 +6959,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6982,16 +6985,16 @@
         <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7005,7 +7008,7 @@
         <v>40</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>40</v>
@@ -7041,7 +7044,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -7059,10 +7062,10 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>40</v>
@@ -7073,10 +7076,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7099,13 +7102,13 @@
         <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7156,7 +7159,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7174,10 +7177,10 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -7188,10 +7191,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7214,16 +7217,16 @@
         <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7273,7 +7276,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7291,10 +7294,10 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>40</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7331,16 +7334,16 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7390,7 +7393,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7405,13 +7408,13 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -7422,10 +7425,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7451,13 +7454,13 @@
         <v>63</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7507,7 +7510,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7522,13 +7525,13 @@
         <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -7539,14 +7542,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7565,13 +7568,13 @@
         <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7622,7 +7625,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7637,13 +7640,13 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
@@ -7654,14 +7657,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7680,13 +7683,13 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7737,7 +7740,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7752,13 +7755,13 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7769,14 +7772,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7795,19 +7798,19 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7856,7 +7859,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7871,13 +7874,13 @@
         <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
@@ -7888,10 +7891,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7917,13 +7920,13 @@
         <v>69</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7949,13 +7952,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -7973,7 +7976,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>49</v>
@@ -7988,27 +7991,27 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8034,13 +8037,13 @@
         <v>69</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8066,13 +8069,13 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
@@ -8090,7 +8093,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>49</v>
@@ -8105,16 +8108,16 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8122,10 +8125,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8148,19 +8151,19 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8185,11 +8188,11 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8207,7 +8210,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8225,13 +8228,13 @@
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8239,10 +8242,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8265,13 +8268,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8322,7 +8325,7 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8343,7 +8346,7 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
@@ -8354,14 +8357,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8383,13 +8386,13 @@
         <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8430,7 +8433,7 @@
         <v>97</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
@@ -8439,7 +8442,7 @@
         <v>98</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8460,7 +8463,7 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>40</v>
@@ -8471,10 +8474,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8497,19 +8500,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8558,7 +8561,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8576,10 +8579,10 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>40</v>
@@ -8590,10 +8593,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8616,13 +8619,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8673,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8694,7 +8697,7 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>40</v>
@@ -8705,14 +8708,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8734,13 +8737,13 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8781,7 +8784,7 @@
         <v>97</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>40</v>
@@ -8790,7 +8793,7 @@
         <v>98</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8811,7 +8814,7 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>40</v>
@@ -8822,10 +8825,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8851,16 +8854,16 @@
         <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8909,7 +8912,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8927,10 +8930,10 @@
         <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8941,10 +8944,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8967,16 +8970,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9026,7 +9029,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9044,10 +9047,10 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>40</v>
@@ -9058,10 +9061,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9087,14 +9090,14 @@
         <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9143,7 +9146,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9161,10 +9164,10 @@
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>40</v>
@@ -9175,10 +9178,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9201,17 +9204,17 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9260,7 +9263,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9278,10 +9281,10 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>40</v>
@@ -9292,10 +9295,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9318,19 +9321,19 @@
         <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -9379,7 +9382,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9397,10 +9400,10 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>40</v>
@@ -9411,10 +9414,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9437,19 +9440,19 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9498,7 +9501,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9516,10 +9519,10 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>40</v>
@@ -9530,10 +9533,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9559,10 +9562,10 @@
         <v>69</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9570,7 +9573,7 @@
         <v>40</v>
       </c>
       <c r="Q62" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>40</v>
@@ -9591,13 +9594,13 @@
         <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>40</v>
@@ -9615,7 +9618,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9630,16 +9633,16 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9647,10 +9650,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9673,70 +9676,70 @@
         <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9751,13 +9754,13 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>40</v>
@@ -9768,10 +9771,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9794,13 +9797,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9851,7 +9854,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9883,10 +9886,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9964,7 +9967,7 @@
         <v>98</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -9996,13 +9999,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="C66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>40</v>
@@ -10024,13 +10027,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10081,7 +10084,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10113,10 +10116,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10139,13 +10142,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10196,7 +10199,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10228,14 +10231,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10254,16 +10257,16 @@
         <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10289,11 +10292,11 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10311,7 +10314,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10326,27 +10329,27 @@
         <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10369,13 +10372,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10426,7 +10429,7 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -10447,7 +10450,7 @@
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>40</v>
@@ -10458,14 +10461,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10487,13 +10490,13 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10534,7 +10537,7 @@
         <v>97</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>40</v>
@@ -10543,7 +10546,7 @@
         <v>98</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10564,7 +10567,7 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>40</v>
@@ -10575,10 +10578,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10601,19 +10604,19 @@
         <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10662,7 +10665,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10680,10 +10683,10 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>40</v>
@@ -10694,10 +10697,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10720,13 +10723,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10777,7 +10780,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10798,7 +10801,7 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>40</v>
@@ -10809,14 +10812,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10838,13 +10841,13 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10885,7 +10888,7 @@
         <v>97</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>40</v>
@@ -10894,7 +10897,7 @@
         <v>98</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10915,7 +10918,7 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>40</v>
@@ -10926,10 +10929,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10955,16 +10958,16 @@
         <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11013,7 +11016,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11031,10 +11034,10 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>40</v>
@@ -11045,10 +11048,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11071,16 +11074,16 @@
         <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11130,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11148,10 +11151,10 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>40</v>
@@ -11162,10 +11165,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11191,14 +11194,14 @@
         <v>69</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11247,7 +11250,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11265,10 +11268,10 @@
         <v>40</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>40</v>
@@ -11279,10 +11282,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11305,17 +11308,17 @@
         <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11364,7 +11367,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11382,10 +11385,10 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>40</v>
@@ -11396,10 +11399,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11422,19 +11425,19 @@
         <v>50</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11483,7 +11486,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11501,10 +11504,10 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>40</v>
@@ -11515,10 +11518,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11541,19 +11544,19 @@
         <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11602,7 +11605,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11620,10 +11623,10 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>40</v>
@@ -11634,14 +11637,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11660,16 +11663,16 @@
         <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11695,13 +11698,13 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
@@ -11719,7 +11722,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11728,7 +11731,7 @@
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>61</v>
@@ -11737,24 +11740,24 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11777,17 +11780,17 @@
         <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -11836,7 +11839,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11854,10 +11857,10 @@
         <v>40</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>40</v>
@@ -11868,10 +11871,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11894,13 +11897,13 @@
         <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11951,7 +11954,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>49</v>
@@ -11966,31 +11969,31 @@
         <v>61</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12009,13 +12012,13 @@
         <v>50</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12066,7 +12069,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12081,31 +12084,31 @@
         <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12124,13 +12127,13 @@
         <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12181,7 +12184,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12196,27 +12199,27 @@
         <v>61</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12239,13 +12242,13 @@
         <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12272,13 +12275,13 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
@@ -12296,7 +12299,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -12317,25 +12320,25 @@
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12354,13 +12357,13 @@
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12411,7 +12414,7 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12426,31 +12429,31 @@
         <v>61</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12469,16 +12472,16 @@
         <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12528,7 +12531,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12543,31 +12546,31 @@
         <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12586,16 +12589,16 @@
         <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12621,13 +12624,13 @@
         <v>40</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>40</v>
@@ -12645,7 +12648,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12660,16 +12663,16 @@
         <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -12677,14 +12680,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12703,16 +12706,16 @@
         <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12762,7 +12765,7 @@
         <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12777,16 +12780,16 @@
         <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
@@ -12794,10 +12797,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12820,13 +12823,13 @@
         <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12853,11 +12856,11 @@
         <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>40</v>
@@ -12875,7 +12878,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12896,10 +12899,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -12907,10 +12910,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12933,13 +12936,13 @@
         <v>40</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12990,7 +12993,7 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13011,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>40</v>
@@ -13022,14 +13025,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13051,13 +13054,13 @@
         <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13098,7 +13101,7 @@
         <v>97</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>40</v>
@@ -13107,7 +13110,7 @@
         <v>98</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13128,7 +13131,7 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>40</v>
@@ -13139,10 +13142,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13165,19 +13168,19 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
@@ -13226,7 +13229,7 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -13244,10 +13247,10 @@
         <v>40</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>40</v>
@@ -13258,10 +13261,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13284,13 +13287,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13341,7 +13344,7 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13362,7 +13365,7 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>40</v>
@@ -13373,14 +13376,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13402,13 +13405,13 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13449,7 +13452,7 @@
         <v>97</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>40</v>
@@ -13458,7 +13461,7 @@
         <v>98</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13479,7 +13482,7 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>40</v>
@@ -13490,10 +13493,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13519,16 +13522,16 @@
         <v>63</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>40</v>
@@ -13577,7 +13580,7 @@
         <v>40</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13595,10 +13598,10 @@
         <v>40</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>40</v>
@@ -13609,10 +13612,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13635,16 +13638,16 @@
         <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13694,7 +13697,7 @@
         <v>40</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
@@ -13712,10 +13715,10 @@
         <v>40</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>40</v>
@@ -13726,10 +13729,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13755,14 +13758,14 @@
         <v>69</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>40</v>
@@ -13811,7 +13814,7 @@
         <v>40</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -13829,10 +13832,10 @@
         <v>40</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>40</v>
@@ -13843,10 +13846,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13869,17 +13872,17 @@
         <v>50</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>40</v>
@@ -13928,7 +13931,7 @@
         <v>40</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
@@ -13946,10 +13949,10 @@
         <v>40</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>40</v>
@@ -13960,10 +13963,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13986,19 +13989,19 @@
         <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>40</v>
@@ -14047,7 +14050,7 @@
         <v>40</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14065,10 +14068,10 @@
         <v>40</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>40</v>
@@ -14079,10 +14082,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14105,19 +14108,19 @@
         <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>40</v>
@@ -14166,7 +14169,7 @@
         <v>40</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
@@ -14184,10 +14187,10 @@
         <v>40</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>40</v>
@@ -14198,10 +14201,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14224,13 +14227,13 @@
         <v>50</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14281,7 +14284,7 @@
         <v>40</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
@@ -14302,10 +14305,10 @@
         <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>40</v>
@@ -14313,10 +14316,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14339,16 +14342,16 @@
         <v>50</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14374,11 +14377,11 @@
         <v>40</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>40</v>
@@ -14396,7 +14399,7 @@
         <v>40</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -14411,16 +14414,16 @@
         <v>61</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>40</v>
@@ -14428,10 +14431,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14454,16 +14457,16 @@
         <v>50</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14513,7 +14516,7 @@
         <v>40</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>38</v>
@@ -14528,16 +14531,16 @@
         <v>61</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>40</v>
@@ -14545,10 +14548,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14571,13 +14574,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14628,7 +14631,7 @@
         <v>40</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>38</v>
@@ -14643,13 +14646,13 @@
         <v>61</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>40</v>
@@ -14660,14 +14663,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14686,16 +14689,16 @@
         <v>40</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14733,10 +14736,10 @@
         <v>40</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>40</v>
@@ -14745,7 +14748,7 @@
         <v>98</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
@@ -14760,13 +14763,13 @@
         <v>61</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>40</v>
@@ -14777,16 +14780,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14805,16 +14808,16 @@
         <v>40</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14864,7 +14867,7 @@
         <v>40</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>38</v>
@@ -14879,13 +14882,13 @@
         <v>61</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>40</v>
@@ -14896,16 +14899,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14924,16 +14927,16 @@
         <v>40</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14983,7 +14986,7 @@
         <v>40</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
@@ -14998,13 +15001,13 @@
         <v>61</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>40</v>
@@ -15015,16 +15018,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>118</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15043,16 +15046,16 @@
         <v>40</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15102,7 +15105,7 @@
         <v>40</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>38</v>
@@ -15117,13 +15120,13 @@
         <v>61</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>40</v>
@@ -15134,16 +15137,16 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15162,16 +15165,16 @@
         <v>40</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15221,7 +15224,7 @@
         <v>40</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>38</v>
@@ -15236,13 +15239,13 @@
         <v>61</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>40</v>
@@ -15253,16 +15256,16 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15281,16 +15284,16 @@
         <v>40</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15340,7 +15343,7 @@
         <v>40</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>38</v>
@@ -15355,13 +15358,13 @@
         <v>61</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>40</v>
@@ -15372,16 +15375,16 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15400,16 +15403,16 @@
         <v>40</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15459,7 +15462,7 @@
         <v>40</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>38</v>
@@ -15474,13 +15477,13 @@
         <v>61</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>40</v>
@@ -15491,16 +15494,16 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15519,16 +15522,16 @@
         <v>40</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15578,7 +15581,7 @@
         <v>40</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>38</v>
@@ -15593,13 +15596,13 @@
         <v>61</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>40</v>
@@ -15610,16 +15613,16 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15638,16 +15641,16 @@
         <v>40</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15697,7 +15700,7 @@
         <v>40</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>38</v>
@@ -15712,13 +15715,13 @@
         <v>61</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>40</v>
@@ -15729,16 +15732,16 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15757,16 +15760,16 @@
         <v>40</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15816,7 +15819,7 @@
         <v>40</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>38</v>
@@ -15831,13 +15834,13 @@
         <v>61</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>40</v>
@@ -15848,16 +15851,16 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15876,16 +15879,16 @@
         <v>40</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15935,7 +15938,7 @@
         <v>40</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>38</v>
@@ -15950,13 +15953,13 @@
         <v>61</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>40</v>
@@ -15967,10 +15970,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15993,16 +15996,16 @@
         <v>50</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16052,7 +16055,7 @@
         <v>40</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>38</v>
@@ -16070,10 +16073,10 @@
         <v>40</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>40</v>
@@ -16084,14 +16087,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16110,19 +16113,19 @@
         <v>50</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>40</v>
@@ -16147,13 +16150,13 @@
         <v>40</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>40</v>
@@ -16171,7 +16174,7 @@
         <v>40</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>38</v>
@@ -16189,24 +16192,24 @@
         <v>40</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16229,13 +16232,13 @@
         <v>40</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16286,7 +16289,7 @@
         <v>40</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>38</v>
@@ -16301,27 +16304,27 @@
         <v>61</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16344,13 +16347,13 @@
         <v>50</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16401,7 +16404,7 @@
         <v>40</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>38</v>
@@ -16419,10 +16422,10 @@
         <v>40</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>40</v>
@@ -16433,10 +16436,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16459,16 +16462,16 @@
         <v>40</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16518,7 +16521,7 @@
         <v>40</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>38</v>
@@ -16533,13 +16536,13 @@
         <v>61</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="640">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1821,12 +1821,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo:paciente</t>
-  </si>
-  <si>
-    <t>paciente</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo:DiagnosticoSospecha</t>
@@ -2344,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO121"/>
+  <dimension ref="A1:AO120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -14808,7 +14802,7 @@
         <v>40</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L107" t="s" s="2">
         <v>571</v>
@@ -14899,13 +14893,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>582</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>569</v>
@@ -15024,7 +15018,7 @@
         <v>568</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>118</v>
+        <v>585</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>569</v>
@@ -15046,7 +15040,7 @@
         <v>40</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>571</v>
@@ -15137,13 +15131,13 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>569</v>
@@ -15165,7 +15159,7 @@
         <v>40</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>571</v>
@@ -15256,13 +15250,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>569</v>
@@ -15284,7 +15278,7 @@
         <v>40</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>571</v>
@@ -15375,13 +15369,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>569</v>
@@ -15403,7 +15397,7 @@
         <v>40</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>571</v>
@@ -15494,13 +15488,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>569</v>
@@ -15522,7 +15516,7 @@
         <v>40</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>571</v>
@@ -15613,13 +15607,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>569</v>
@@ -15641,7 +15635,7 @@
         <v>40</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>571</v>
@@ -15732,13 +15726,13 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>568</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>569</v>
@@ -15760,7 +15754,7 @@
         <v>40</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L115" t="s" s="2">
         <v>571</v>
@@ -15851,44 +15845,42 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C116" t="s" s="2">
         <v>605</v>
       </c>
+      <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>606</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15938,7 +15930,7 @@
         <v>40</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>38</v>
@@ -15953,13 +15945,13 @@
         <v>61</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>40</v>
@@ -15970,14 +15962,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>40</v>
+        <v>613</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15996,18 +15988,20 @@
         <v>50</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>608</v>
+        <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O117" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="P117" t="s" s="2">
         <v>40</v>
       </c>
@@ -16031,13 +16025,13 @@
         <v>40</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>40</v>
+        <v>618</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>40</v>
+        <v>619</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>40</v>
@@ -16055,7 +16049,7 @@
         <v>40</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>38</v>
@@ -16073,28 +16067,28 @@
         <v>40</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>40</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>615</v>
+        <v>40</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16110,23 +16104,19 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>623</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>40</v>
       </c>
@@ -16150,13 +16140,13 @@
         <v>40</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>620</v>
+        <v>40</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>621</v>
+        <v>40</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>40</v>
@@ -16174,7 +16164,7 @@
         <v>40</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>38</v>
@@ -16189,27 +16179,27 @@
         <v>61</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>40</v>
+        <v>626</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>612</v>
+        <v>439</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16220,7 +16210,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>40</v>
@@ -16229,16 +16219,16 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>625</v>
+        <v>177</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16289,13 +16279,13 @@
         <v>40</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>40</v>
@@ -16304,27 +16294,27 @@
         <v>61</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>628</v>
+        <v>40</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>630</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16335,7 +16325,7 @@
         <v>38</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>40</v>
@@ -16344,18 +16334,20 @@
         <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>40</v>
@@ -16404,13 +16396,13 @@
         <v>40</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>40</v>
@@ -16419,140 +16411,23 @@
         <v>61</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>40</v>
+        <v>638</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>439</v>
+        <v>92</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO121" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO121">
+  <autoFilter ref="A1:AO120">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16562,7 +16437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI120">
+  <conditionalFormatting sqref="A2:AI119">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>Fundamente de la Priorización</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>ServiceRequest.extension:EstadoInterconsultaCodigo</t>
@@ -4171,7 +4168,7 @@
         <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4243,7 +4240,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -4254,13 +4251,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>40</v>
@@ -4282,13 +4279,13 @@
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4371,13 +4368,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>40</v>
@@ -4399,13 +4396,13 @@
         <v>40</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4488,13 +4485,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>40</v>
@@ -4516,13 +4513,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4605,13 +4602,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>40</v>
@@ -4633,13 +4630,13 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4722,13 +4719,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>40</v>
@@ -4750,13 +4747,13 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4839,14 +4836,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4868,16 +4865,16 @@
         <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4926,7 +4923,7 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4958,10 +4955,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4984,16 +4981,16 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5043,7 +5040,7 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -5058,27 +5055,27 @@
         <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5101,13 +5098,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5158,28 +5155,28 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>40</v>
@@ -5190,14 +5187,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5219,13 +5216,13 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5266,7 +5263,7 @@
         <v>97</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>40</v>
@@ -5275,7 +5272,7 @@
         <v>98</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
@@ -5296,7 +5293,7 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>40</v>
@@ -5307,10 +5304,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5336,16 +5333,16 @@
         <v>69</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5370,31 +5367,31 @@
         <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5415,7 +5412,7 @@
         <v>92</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>40</v>
@@ -5426,10 +5423,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5452,19 +5449,19 @@
         <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5489,31 +5486,31 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5531,10 +5528,10 @@
         <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>40</v>
@@ -5545,10 +5542,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5571,13 +5568,13 @@
         <v>40</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5628,28 +5625,28 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>40</v>
@@ -5660,14 +5657,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5689,13 +5686,13 @@
         <v>94</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N29" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5736,7 +5733,7 @@
         <v>97</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>40</v>
@@ -5745,7 +5742,7 @@
         <v>98</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5766,7 +5763,7 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>40</v>
@@ -5777,10 +5774,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5803,19 +5800,19 @@
         <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
@@ -5840,29 +5837,29 @@
         <v>40</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5880,10 +5877,10 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>40</v>
@@ -5894,10 +5891,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5920,13 +5917,13 @@
         <v>40</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5977,28 +5974,28 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>40</v>
@@ -6009,14 +6006,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6038,13 +6035,13 @@
         <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6085,7 +6082,7 @@
         <v>97</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>40</v>
@@ -6094,7 +6091,7 @@
         <v>98</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -6115,7 +6112,7 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>40</v>
@@ -6126,10 +6123,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6155,16 +6152,16 @@
         <v>63</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6213,7 +6210,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6231,10 +6228,10 @@
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>40</v>
@@ -6245,10 +6242,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6271,16 +6268,16 @@
         <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6330,7 +6327,7 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6348,10 +6345,10 @@
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>40</v>
@@ -6362,10 +6359,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6391,14 +6388,14 @@
         <v>69</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6408,46 +6405,46 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6465,10 +6462,10 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>40</v>
@@ -6479,10 +6476,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6505,17 +6502,17 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6564,7 +6561,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6582,10 +6579,10 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>40</v>
@@ -6596,10 +6593,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6622,19 +6619,19 @@
         <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6683,7 +6680,7 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6701,10 +6698,10 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>40</v>
@@ -6715,10 +6712,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6741,19 +6738,19 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6802,7 +6799,7 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6820,10 +6817,10 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>40</v>
@@ -6834,10 +6831,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6863,16 +6860,16 @@
         <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6885,43 +6882,43 @@
         <v>40</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6939,10 +6936,10 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>40</v>
@@ -6953,10 +6950,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6979,16 +6976,16 @@
         <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7002,43 +6999,43 @@
         <v>40</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -7056,10 +7053,10 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>40</v>
@@ -7070,10 +7067,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7096,13 +7093,13 @@
         <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7153,7 +7150,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7171,10 +7168,10 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>40</v>
@@ -7185,10 +7182,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7211,16 +7208,16 @@
         <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7270,7 +7267,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7288,10 +7285,10 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>40</v>
@@ -7302,10 +7299,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7328,16 +7325,16 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7387,7 +7384,7 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7402,13 +7399,13 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>40</v>
@@ -7419,10 +7416,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7448,13 +7445,13 @@
         <v>63</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7504,7 +7501,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7519,13 +7516,13 @@
         <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>40</v>
@@ -7536,14 +7533,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7562,13 +7559,13 @@
         <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7619,7 +7616,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7634,13 +7631,13 @@
         <v>61</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>40</v>
@@ -7651,14 +7648,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7677,13 +7674,13 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7734,7 +7731,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7749,13 +7746,13 @@
         <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>40</v>
@@ -7766,14 +7763,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7792,19 +7789,19 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>40</v>
@@ -7853,7 +7850,7 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7868,13 +7865,13 @@
         <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>40</v>
@@ -7885,10 +7882,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7914,13 +7911,13 @@
         <v>69</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7946,14 +7943,14 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
       </c>
@@ -7970,7 +7967,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>49</v>
@@ -7985,27 +7982,27 @@
         <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8031,13 +8028,13 @@
         <v>69</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8063,14 +8060,14 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
       </c>
@@ -8087,7 +8084,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>49</v>
@@ -8102,16 +8099,16 @@
         <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8119,10 +8116,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8145,19 +8142,19 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8182,11 +8179,11 @@
         <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>40</v>
@@ -8204,7 +8201,7 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -8222,13 +8219,13 @@
         <v>40</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8236,10 +8233,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8262,13 +8259,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8319,28 +8316,28 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>40</v>
@@ -8351,14 +8348,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8380,13 +8377,13 @@
         <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8427,7 +8424,7 @@
         <v>97</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>40</v>
@@ -8436,7 +8433,7 @@
         <v>98</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8457,7 +8454,7 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>40</v>
@@ -8468,10 +8465,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8494,19 +8491,19 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8555,7 +8552,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8573,10 +8570,10 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>40</v>
@@ -8587,10 +8584,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8613,13 +8610,13 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8670,28 +8667,28 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>40</v>
@@ -8702,14 +8699,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8731,13 +8728,13 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8778,7 +8775,7 @@
         <v>97</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>40</v>
@@ -8787,7 +8784,7 @@
         <v>98</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8808,7 +8805,7 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>40</v>
@@ -8819,10 +8816,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8848,16 +8845,16 @@
         <v>63</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>40</v>
@@ -8906,7 +8903,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8924,10 +8921,10 @@
         <v>40</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>40</v>
@@ -8938,10 +8935,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8964,16 +8961,16 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9023,7 +9020,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9041,10 +9038,10 @@
         <v>40</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>40</v>
@@ -9055,10 +9052,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9084,14 +9081,14 @@
         <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9140,7 +9137,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9158,10 +9155,10 @@
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>40</v>
@@ -9172,10 +9169,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9198,17 +9195,17 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9257,7 +9254,7 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9275,10 +9272,10 @@
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>40</v>
@@ -9289,10 +9286,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9315,19 +9312,19 @@
         <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -9376,7 +9373,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9394,10 +9391,10 @@
         <v>40</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>40</v>
@@ -9408,10 +9405,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9434,19 +9431,19 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9495,7 +9492,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9513,10 +9510,10 @@
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>40</v>
@@ -9527,10 +9524,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9556,10 +9553,10 @@
         <v>69</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9567,35 +9564,35 @@
         <v>40</v>
       </c>
       <c r="Q62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="R62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>40</v>
       </c>
@@ -9612,7 +9609,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9627,16 +9624,16 @@
         <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9644,10 +9641,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9670,26 +9667,26 @@
         <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="O63" t="s" s="2">
+      <c r="P63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="R63" t="s" s="2">
         <v>40</v>
       </c>
@@ -9733,7 +9730,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9748,13 +9745,13 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>40</v>
@@ -9765,10 +9762,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9791,13 +9788,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9848,7 +9845,7 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
@@ -9880,10 +9877,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9961,7 +9958,7 @@
         <v>98</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -9993,13 +9990,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>40</v>
@@ -10021,13 +10018,13 @@
         <v>40</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10078,7 +10075,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10110,10 +10107,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10136,13 +10133,13 @@
         <v>40</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10193,7 +10190,7 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
@@ -10225,14 +10222,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10251,16 +10248,16 @@
         <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10286,11 +10283,11 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10308,7 +10305,7 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
@@ -10323,27 +10320,27 @@
         <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10366,13 +10363,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10423,28 +10420,28 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>40</v>
@@ -10455,14 +10452,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10484,13 +10481,13 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10531,7 +10528,7 @@
         <v>97</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>40</v>
@@ -10540,7 +10537,7 @@
         <v>98</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10561,7 +10558,7 @@
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>40</v>
@@ -10572,10 +10569,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10598,19 +10595,19 @@
         <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10659,7 +10656,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10677,10 +10674,10 @@
         <v>40</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>40</v>
@@ -10691,10 +10688,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10717,13 +10714,13 @@
         <v>40</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10774,28 +10771,28 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>40</v>
@@ -10806,14 +10803,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10835,13 +10832,13 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10882,7 +10879,7 @@
         <v>97</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>40</v>
@@ -10891,7 +10888,7 @@
         <v>98</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -10912,7 +10909,7 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>40</v>
@@ -10923,10 +10920,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10952,16 +10949,16 @@
         <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
@@ -11010,7 +11007,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11028,10 +11025,10 @@
         <v>40</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>40</v>
@@ -11042,10 +11039,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11068,16 +11065,16 @@
         <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11127,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11145,10 +11142,10 @@
         <v>40</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>40</v>
@@ -11159,10 +11156,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11188,14 +11185,14 @@
         <v>69</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11244,7 +11241,7 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
@@ -11262,10 +11259,10 @@
         <v>40</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>40</v>
@@ -11276,10 +11273,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11302,17 +11299,17 @@
         <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11361,7 +11358,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11379,10 +11376,10 @@
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>40</v>
@@ -11393,10 +11390,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11419,19 +11416,19 @@
         <v>50</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11480,7 +11477,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11498,10 +11495,10 @@
         <v>40</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>40</v>
@@ -11512,10 +11509,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11538,19 +11535,19 @@
         <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11599,7 +11596,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11617,10 +11614,10 @@
         <v>40</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>40</v>
@@ -11631,14 +11628,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11657,16 +11654,16 @@
         <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11692,14 +11689,14 @@
         <v>40</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y80" t="s" s="2">
+      <c r="Z80" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>40</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
@@ -11725,7 +11722,7 @@
         <v>39</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>61</v>
@@ -11734,24 +11731,24 @@
         <v>40</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11774,17 +11771,17 @@
         <v>50</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>40</v>
@@ -11833,7 +11830,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11851,10 +11848,10 @@
         <v>40</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>40</v>
@@ -11865,10 +11862,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11891,13 +11888,13 @@
         <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11948,7 +11945,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>49</v>
@@ -11963,31 +11960,31 @@
         <v>61</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>454</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12006,13 +12003,13 @@
         <v>50</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12063,7 +12060,7 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>38</v>
@@ -12078,31 +12075,31 @@
         <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12121,13 +12118,13 @@
         <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12178,7 +12175,7 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
@@ -12193,27 +12190,27 @@
         <v>61</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>474</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12236,13 +12233,13 @@
         <v>50</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12269,14 +12266,14 @@
         <v>40</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>40</v>
       </c>
@@ -12293,7 +12290,7 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
@@ -12314,25 +12311,25 @@
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>482</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12351,13 +12348,13 @@
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12408,7 +12405,7 @@
         <v>40</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12423,31 +12420,31 @@
         <v>61</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>492</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12466,16 +12463,16 @@
         <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12525,7 +12522,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12540,31 +12537,31 @@
         <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AN87" t="s" s="2">
+      <c r="AO87" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12583,16 +12580,16 @@
         <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12618,14 +12615,14 @@
         <v>40</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>40</v>
       </c>
@@ -12642,7 +12639,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12657,16 +12654,16 @@
         <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -12674,14 +12671,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12700,16 +12697,16 @@
         <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12759,7 +12756,7 @@
         <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12774,16 +12771,16 @@
         <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AN89" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
@@ -12791,10 +12788,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12817,13 +12814,13 @@
         <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12850,11 +12847,11 @@
         <v>40</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>40</v>
@@ -12872,7 +12869,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -12893,10 +12890,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -12904,10 +12901,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12930,13 +12927,13 @@
         <v>40</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12987,28 +12984,28 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>40</v>
@@ -13019,14 +13016,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13048,13 +13045,13 @@
         <v>94</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13095,7 +13092,7 @@
         <v>97</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>40</v>
@@ -13104,7 +13101,7 @@
         <v>98</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
@@ -13125,7 +13122,7 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>40</v>
@@ -13136,10 +13133,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13162,19 +13159,19 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
@@ -13223,7 +13220,7 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -13241,10 +13238,10 @@
         <v>40</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>40</v>
@@ -13255,10 +13252,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13281,13 +13278,13 @@
         <v>40</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13338,28 +13335,28 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>40</v>
@@ -13370,14 +13367,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13399,13 +13396,13 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="N95" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13446,7 +13443,7 @@
         <v>97</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>40</v>
@@ -13455,7 +13452,7 @@
         <v>98</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>38</v>
@@ -13476,7 +13473,7 @@
         <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>40</v>
@@ -13487,10 +13484,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13516,16 +13513,16 @@
         <v>63</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>40</v>
@@ -13574,7 +13571,7 @@
         <v>40</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>38</v>
@@ -13592,10 +13589,10 @@
         <v>40</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>40</v>
@@ -13606,10 +13603,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13632,16 +13629,16 @@
         <v>50</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13691,7 +13688,7 @@
         <v>40</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>38</v>
@@ -13709,10 +13706,10 @@
         <v>40</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>40</v>
@@ -13723,10 +13720,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13752,14 +13749,14 @@
         <v>69</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>40</v>
@@ -13808,7 +13805,7 @@
         <v>40</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>38</v>
@@ -13826,10 +13823,10 @@
         <v>40</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>40</v>
@@ -13840,10 +13837,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13866,17 +13863,17 @@
         <v>50</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>40</v>
@@ -13925,7 +13922,7 @@
         <v>40</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>38</v>
@@ -13943,10 +13940,10 @@
         <v>40</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>40</v>
@@ -13957,10 +13954,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13983,19 +13980,19 @@
         <v>50</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>40</v>
@@ -14044,7 +14041,7 @@
         <v>40</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>38</v>
@@ -14062,10 +14059,10 @@
         <v>40</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>40</v>
@@ -14076,10 +14073,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14102,19 +14099,19 @@
         <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>40</v>
@@ -14163,7 +14160,7 @@
         <v>40</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>38</v>
@@ -14181,10 +14178,10 @@
         <v>40</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>40</v>
@@ -14195,10 +14192,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14221,13 +14218,13 @@
         <v>50</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14278,7 +14275,7 @@
         <v>40</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>38</v>
@@ -14299,10 +14296,10 @@
         <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>40</v>
@@ -14310,10 +14307,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14336,16 +14333,16 @@
         <v>50</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14371,11 +14368,11 @@
         <v>40</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>40</v>
@@ -14393,7 +14390,7 @@
         <v>40</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>38</v>
@@ -14408,16 +14405,16 @@
         <v>61</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AL103" t="s" s="2">
+      <c r="AM103" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>40</v>
@@ -14425,10 +14422,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14451,16 +14448,16 @@
         <v>50</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14510,7 +14507,7 @@
         <v>40</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>38</v>
@@ -14525,16 +14522,16 @@
         <v>61</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AL104" t="s" s="2">
+      <c r="AM104" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="AN104" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>40</v>
@@ -14542,10 +14539,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14568,13 +14565,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14625,7 +14622,7 @@
         <v>40</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>38</v>
@@ -14640,13 +14637,13 @@
         <v>61</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AL105" t="s" s="2">
+      <c r="AM105" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>40</v>
@@ -14657,14 +14654,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14683,16 +14680,16 @@
         <v>40</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14730,10 +14727,10 @@
         <v>40</v>
       </c>
       <c r="AB106" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AC106" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>40</v>
@@ -14742,7 +14739,7 @@
         <v>98</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>38</v>
@@ -14757,13 +14754,13 @@
         <v>61</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL106" t="s" s="2">
+      <c r="AM106" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>40</v>
@@ -14774,16 +14771,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C107" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="D107" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14802,16 +14799,16 @@
         <v>40</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14861,7 +14858,7 @@
         <v>40</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>38</v>
@@ -14876,13 +14873,13 @@
         <v>61</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL107" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL107" t="s" s="2">
+      <c r="AM107" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>40</v>
@@ -14893,16 +14890,16 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>118</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14921,16 +14918,16 @@
         <v>40</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14980,7 +14977,7 @@
         <v>40</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>38</v>
@@ -14995,13 +14992,13 @@
         <v>61</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL108" t="s" s="2">
+      <c r="AM108" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>40</v>
@@ -15012,16 +15009,16 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C109" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="D109" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15040,16 +15037,16 @@
         <v>40</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15099,7 +15096,7 @@
         <v>40</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>38</v>
@@ -15114,13 +15111,13 @@
         <v>61</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL109" t="s" s="2">
+      <c r="AM109" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>40</v>
@@ -15131,16 +15128,16 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C110" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="D110" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="D110" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15159,16 +15156,16 @@
         <v>40</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15218,7 +15215,7 @@
         <v>40</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>38</v>
@@ -15233,13 +15230,13 @@
         <v>61</v>
       </c>
       <c r="AK110" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL110" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL110" t="s" s="2">
+      <c r="AM110" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>40</v>
@@ -15250,16 +15247,16 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C111" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="D111" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15278,16 +15275,16 @@
         <v>40</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15337,7 +15334,7 @@
         <v>40</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>38</v>
@@ -15352,13 +15349,13 @@
         <v>61</v>
       </c>
       <c r="AK111" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL111" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL111" t="s" s="2">
+      <c r="AM111" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>40</v>
@@ -15369,16 +15366,16 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C112" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="D112" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="D112" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15397,16 +15394,16 @@
         <v>40</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15456,7 +15453,7 @@
         <v>40</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>38</v>
@@ -15471,13 +15468,13 @@
         <v>61</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL112" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL112" t="s" s="2">
+      <c r="AM112" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>40</v>
@@ -15488,16 +15485,16 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C113" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="D113" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15516,16 +15513,16 @@
         <v>40</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15575,7 +15572,7 @@
         <v>40</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>38</v>
@@ -15590,13 +15587,13 @@
         <v>61</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL113" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL113" t="s" s="2">
+      <c r="AM113" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>40</v>
@@ -15607,16 +15604,16 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="D114" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15635,16 +15632,16 @@
         <v>40</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15694,7 +15691,7 @@
         <v>40</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>38</v>
@@ -15709,13 +15706,13 @@
         <v>61</v>
       </c>
       <c r="AK114" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL114" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL114" t="s" s="2">
+      <c r="AM114" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>40</v>
@@ -15726,16 +15723,16 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C115" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="D115" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="D115" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15754,16 +15751,16 @@
         <v>40</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15813,7 +15810,7 @@
         <v>40</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>38</v>
@@ -15828,13 +15825,13 @@
         <v>61</v>
       </c>
       <c r="AK115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL115" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AL115" t="s" s="2">
+      <c r="AM115" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>40</v>
@@ -15845,10 +15842,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15871,16 +15868,16 @@
         <v>50</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15930,7 +15927,7 @@
         <v>40</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>38</v>
@@ -15948,10 +15945,10 @@
         <v>40</v>
       </c>
       <c r="AL116" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM116" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>40</v>
@@ -15962,14 +15959,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -15988,19 +15985,19 @@
         <v>50</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>40</v>
@@ -16025,14 +16022,14 @@
         <v>40</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>619</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>40</v>
       </c>
@@ -16049,7 +16046,7 @@
         <v>40</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>38</v>
@@ -16067,24 +16064,24 @@
         <v>40</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM117" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16107,13 +16104,13 @@
         <v>40</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16164,7 +16161,7 @@
         <v>40</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>38</v>
@@ -16179,27 +16176,27 @@
         <v>61</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM118" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AL118" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AM118" t="s" s="2">
+      <c r="AN118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>628</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16222,13 +16219,13 @@
         <v>50</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16279,7 +16276,7 @@
         <v>40</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>38</v>
@@ -16297,10 +16294,10 @@
         <v>40</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>40</v>
@@ -16311,10 +16308,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16337,16 +16334,16 @@
         <v>40</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16396,7 +16393,7 @@
         <v>40</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>38</v>
@@ -16411,13 +16408,13 @@
         <v>61</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1716,11 +1716,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterIniciarLE)
 </t>
   </si>
   <si>
-    <t>Referencia al encuentro que da inicio a la interconsulta</t>
+    <t>Referencia al encuentro que da Iniciar a la interconsulta</t>
   </si>
   <si>
     <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
@@ -2022,7 +2022,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarLE)
 </t>
   </si>
   <si>
@@ -2108,7 +2108,7 @@
     <t>DiagnosticoSospecha</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionInicioDiagnosticoLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarDiagnosticoLE)
 </t>
   </si>
   <si>
@@ -2121,7 +2121,7 @@
     <t>SospechaPatologiaGes</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionInicioGesLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarGesLE)
 </t>
   </si>
   <si>
@@ -2134,7 +2134,7 @@
     <t>TipoAlergia</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/AllergyIntoleranceInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/AllergyIntoleranceIniciarLE)
 </t>
   </si>
   <si>
@@ -2147,7 +2147,7 @@
     <t>IndiceComorbilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioIndiceComorbilidadLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarIndiceComorbilidadLE)
 </t>
   </si>
   <si>
@@ -2160,7 +2160,7 @@
     <t>Cuidador</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioCuidadorLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarCuidadorLE)
 </t>
   </si>
   <si>
@@ -2173,7 +2173,7 @@
     <t>DocCuidador</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceIniciarLE)
 </t>
   </si>
   <si>
@@ -2186,7 +2186,7 @@
     <t>Discapacidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationInicioDiscapacidadLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarDiscapacidadLE)
 </t>
   </si>
   <si>
@@ -2199,7 +2199,7 @@
     <t>Prevision</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageIniciarLE)
 </t>
   </si>
   <si>
@@ -2212,7 +2212,7 @@
     <t>motivoDerivacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/QuestionnaireResponseInicioLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/QuestionnaireResponseIniciarLE)
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.13671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -646,7 +646,7 @@
     <t>Código del destino de la atención: Control|Alta|Derivación</t>
   </si>
   <si>
-    <t>Destino Atención Codigo</t>
+    <t>Consecuencia Atención Codigo</t>
   </si>
   <si>
     <t>ServiceRequest.extension:PertinenciaInterconsulta</t>
@@ -842,7 +842,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://terminology.cens.cl/CodeSystem/listaespera</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSIdInterconsulta</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1644,9 +1647,6 @@
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codified order entry details which are based on order context.</t>
@@ -6285,11 +6285,11 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -6307,7 +6307,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6325,10 +6325,10 @@
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6339,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6454,10 +6454,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6571,10 +6571,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6600,16 +6600,16 @@
         <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6658,7 +6658,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6676,10 +6676,10 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6719,13 +6719,13 @@
         <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6775,7 +6775,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6793,10 +6793,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6836,14 +6836,14 @@
         <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6853,7 +6853,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6892,7 +6892,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6910,10 +6910,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6953,14 +6953,14 @@
         <v>224</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -7009,7 +7009,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -7027,10 +7027,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7067,19 +7067,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -7128,7 +7128,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -7146,10 +7146,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -7160,10 +7160,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7189,16 +7189,16 @@
         <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -7247,7 +7247,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7265,10 +7265,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7279,10 +7279,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7308,16 +7308,16 @@
         <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -7330,7 +7330,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -7366,7 +7366,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7384,10 +7384,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7398,10 +7398,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7427,13 +7427,13 @@
         <v>224</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7447,7 +7447,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -7483,7 +7483,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7501,10 +7501,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7515,10 +7515,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7541,13 +7541,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7598,7 +7598,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7616,10 +7616,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7630,10 +7630,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7656,16 +7656,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7715,7 +7715,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7733,10 +7733,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7747,10 +7747,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7773,16 +7773,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7832,7 +7832,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7847,13 +7847,13 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7864,10 +7864,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7893,13 +7893,13 @@
         <v>104</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7949,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7964,13 +7964,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7981,14 +7981,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -8007,13 +8007,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -8064,7 +8064,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -8079,13 +8079,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -8096,14 +8096,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8122,13 +8122,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8179,7 +8179,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -8194,13 +8194,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -8211,14 +8211,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8240,16 +8240,16 @@
         <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -8298,7 +8298,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8313,13 +8313,13 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8359,13 +8359,13 @@
         <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8394,10 +8394,10 @@
         <v>239</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -8415,7 +8415,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>90</v>
@@ -8430,27 +8430,27 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8476,13 +8476,13 @@
         <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8493,7 +8493,7 @@
         <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>81</v>
@@ -8511,10 +8511,10 @@
         <v>239</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8532,7 +8532,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>90</v>
@@ -8547,16 +8547,16 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8564,10 +8564,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8593,16 +8593,16 @@
         <v>245</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8649,7 +8649,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8667,13 +8667,13 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8681,10 +8681,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8796,10 +8796,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8913,10 +8913,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9000,7 +9000,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -9018,10 +9018,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -9032,10 +9032,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9147,10 +9147,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9264,10 +9264,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9293,16 +9293,16 @@
         <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -9351,7 +9351,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9369,10 +9369,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9383,10 +9383,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9412,13 +9412,13 @@
         <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9468,7 +9468,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9486,10 +9486,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -9500,10 +9500,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9529,14 +9529,14 @@
         <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9585,7 +9585,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9603,10 +9603,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9617,10 +9617,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9646,14 +9646,14 @@
         <v>224</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9702,7 +9702,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9720,10 +9720,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9734,10 +9734,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9760,19 +9760,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9821,7 +9821,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9839,10 +9839,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9853,10 +9853,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9882,16 +9882,16 @@
         <v>224</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9940,7 +9940,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9958,10 +9958,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10001,10 +10001,10 @@
         <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -10012,7 +10012,7 @@
         <v>81</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>81</v>
@@ -10036,10 +10036,10 @@
         <v>239</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -10057,7 +10057,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -10072,16 +10072,16 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -10089,10 +10089,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10115,70 +10115,70 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10193,13 +10193,13 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -10210,10 +10210,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10239,10 +10239,10 @@
         <v>224</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10438,13 +10438,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="C67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>81</v>
@@ -10466,13 +10466,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10555,10 +10555,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10670,10 +10670,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10785,10 +10785,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10814,13 +10814,13 @@
         <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>81</v>
@@ -10870,7 +10870,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>90</v>
@@ -10902,10 +10902,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10931,10 +10931,10 @@
         <v>245</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10983,7 +10983,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -11015,10 +11015,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11130,10 +11130,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11247,10 +11247,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11276,7 +11276,7 @@
         <v>258</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>260</v>
@@ -11334,7 +11334,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11352,10 +11352,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11366,10 +11366,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11481,10 +11481,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11598,10 +11598,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11627,16 +11627,16 @@
         <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11685,7 +11685,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11703,10 +11703,10 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11746,13 +11746,13 @@
         <v>224</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11802,7 +11802,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11820,10 +11820,10 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11834,10 +11834,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11863,14 +11863,14 @@
         <v>110</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11919,7 +11919,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11937,10 +11937,10 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11980,14 +11980,14 @@
         <v>224</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -12036,7 +12036,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -12054,10 +12054,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -12068,10 +12068,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12094,19 +12094,19 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
@@ -12155,7 +12155,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12173,10 +12173,10 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -12187,10 +12187,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12216,16 +12216,16 @@
         <v>224</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -12274,7 +12274,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12292,10 +12292,10 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
@@ -12306,10 +12306,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12332,13 +12332,13 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12389,7 +12389,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12421,14 +12421,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12450,13 +12450,13 @@
         <v>245</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12504,7 +12504,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12519,27 +12519,27 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12651,10 +12651,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12768,10 +12768,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12855,7 +12855,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12873,10 +12873,10 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -12887,10 +12887,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13002,10 +13002,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13119,10 +13119,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13148,16 +13148,16 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13206,7 +13206,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13224,10 +13224,10 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13238,10 +13238,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13267,13 +13267,13 @@
         <v>224</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13323,7 +13323,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13341,10 +13341,10 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13355,10 +13355,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13384,14 +13384,14 @@
         <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13440,7 +13440,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13458,10 +13458,10 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13472,10 +13472,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13501,14 +13501,14 @@
         <v>224</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13557,7 +13557,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13575,10 +13575,10 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
@@ -13589,10 +13589,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13615,19 +13615,19 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13676,7 +13676,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13694,10 +13694,10 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13708,10 +13708,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13737,16 +13737,16 @@
         <v>224</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
@@ -13795,7 +13795,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13813,10 +13813,10 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
@@ -13827,14 +13827,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13856,13 +13856,13 @@
         <v>245</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13888,7 +13888,7 @@
         <v>81</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="Y96" t="s" s="2">
         <v>528</v>
@@ -13912,7 +13912,7 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13933,13 +13933,13 @@
         <v>531</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -14465,7 +14465,7 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="Y101" t="s" s="2">
         <v>571</v>
@@ -14814,7 +14814,7 @@
         <v>81</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="Y104" t="s" s="2">
         <v>601</v>
@@ -15419,7 +15419,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15437,10 +15437,10 @@
         <v>81</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>81</v>
@@ -15712,16 +15712,16 @@
         <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>81</v>
@@ -15770,7 +15770,7 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15788,10 +15788,10 @@
         <v>81</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>81</v>
@@ -15831,13 +15831,13 @@
         <v>224</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15887,7 +15887,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15905,10 +15905,10 @@
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>81</v>
@@ -15948,14 +15948,14 @@
         <v>110</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>81</v>
@@ -16004,7 +16004,7 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -16022,10 +16022,10 @@
         <v>81</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>81</v>
@@ -16065,14 +16065,14 @@
         <v>224</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>81</v>
@@ -16121,7 +16121,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16139,10 +16139,10 @@
         <v>81</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>81</v>
@@ -16179,19 +16179,19 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
@@ -16240,7 +16240,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16258,10 +16258,10 @@
         <v>81</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>81</v>
@@ -16301,16 +16301,16 @@
         <v>224</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>81</v>
@@ -16359,7 +16359,7 @@
         <v>81</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16377,10 +16377,10 @@
         <v>81</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>81</v>
@@ -18340,7 +18340,7 @@
         <v>81</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="Y134" t="s" s="2">
         <v>725</v>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="667">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
 </t>
   </si>
   <si>
-    <t>Código de la subespecialidad médica de destino.</t>
+    <t>Código de la subespecialidad médica de destino</t>
   </si>
   <si>
     <t>SubEspecialidad Médica Destino Código</t>
@@ -611,7 +611,7 @@
 </t>
   </si>
   <si>
-    <t>Tipo de pertinencia de la IC: Pertinente|Incompleta|No pertinente.</t>
+    <t>Descripción de la evaluación de pertinencia de la interconsulta</t>
   </si>
   <si>
     <t>Pertinencia Interconsulta</t>
@@ -860,7 +860,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>TipoIdentificadorSR</t>
+    <t>01</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1316,7 +1316,7 @@
     <t>ServiceRequest.doNotPerform</t>
   </si>
   <si>
-    <t>Si el servicio debiese o no realizarse.</t>
+    <t>True if service/procedure should not be performed</t>
   </si>
   <si>
     <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
@@ -1335,175 +1335,6 @@
   </si>
   <si>
     <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t>MotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MotivoNoPertinenciaCodigo}
-</t>
-  </si>
-  <si>
-    <t>Motivo No Pertinencia Codigo</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Motivo No Pertinencia</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSMotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo.value[x].text</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Motivo de no pertinencia, como texto libre</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform.value</t>
-  </si>
-  <si>
-    <t>Primitive value for boolean</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>boolean.value</t>
   </si>
   <si>
     <t>ServiceRequest.code</t>
@@ -2104,19 +1935,6 @@
   </si>
   <si>
     <t>Referencia a la observación de si el paciente es cuidador</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo:DocCuidador</t>
-  </si>
-  <si>
-    <t>DocCuidador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/DocumentReferenceIniciarLE)
-</t>
-  </si>
-  <si>
-    <t>Referencia al documento que acredita que el paciente es cuidador</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo:Discapacidad</t>
@@ -2596,7 +2414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO134"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2605,8 +2423,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="91.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="65.62109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2630,7 +2448,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9694,7 +9512,7 @@
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>91</v>
@@ -9805,34 +9623,36 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9857,13 +9677,11 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9881,7 +9699,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9893,30 +9711,30 @@
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9927,7 +9745,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9939,13 +9757,13 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9984,29 +9802,31 @@
         <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -10015,7 +9835,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -10026,26 +9846,24 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>81</v>
@@ -10054,15 +9872,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>433</v>
+        <v>215</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -10099,16 +9919,16 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>218</v>
@@ -10120,7 +9940,7 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>141</v>
@@ -10132,7 +9952,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -10143,10 +9963,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10154,31 +9974,35 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10226,28 +10050,28 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10258,10 +10082,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10272,7 +10096,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
@@ -10284,13 +10108,13 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10329,31 +10153,31 @@
         <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -10362,7 +10186,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10373,24 +10197,24 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>81</v>
@@ -10399,16 +10223,16 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>441</v>
+        <v>216</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>442</v>
+        <v>195</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10416,7 +10240,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>81</v>
@@ -10446,31 +10270,31 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>444</v>
+        <v>218</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
@@ -10479,7 +10303,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10490,10 +10314,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10507,25 +10331,29 @@
         <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10549,11 +10377,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10571,7 +10401,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>450</v>
+        <v>256</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10589,10 +10419,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10603,10 +10433,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10626,18 +10456,20 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10686,7 +10518,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10698,16 +10530,16 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10718,44 +10550,44 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10791,40 +10623,40 @@
         <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10835,10 +10667,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10846,7 +10678,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>90</v>
@@ -10861,19 +10693,17 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10922,13 +10752,13 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>81</v>
@@ -10940,10 +10770,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10954,10 +10784,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10977,19 +10807,23 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -11037,7 +10871,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -11049,16 +10883,16 @@
         <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -11069,21 +10903,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -11092,21 +10926,23 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -11142,40 +10978,40 @@
         <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -11186,24 +11022,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
@@ -11212,20 +11048,18 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11249,13 +11083,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>81</v>
+        <v>455</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11273,16 +11107,16 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>256</v>
+        <v>448</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>102</v>
@@ -11291,24 +11125,24 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>257</v>
+        <v>457</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>258</v>
+        <v>434</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11331,18 +11165,18 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11390,7 +11224,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>263</v>
+        <v>458</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11408,10 +11242,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>264</v>
+        <v>457</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>265</v>
+        <v>463</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11422,10 +11256,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11448,18 +11282,16 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>268</v>
+        <v>467</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11507,10 +11339,10 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>271</v>
+        <v>464</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>90</v>
@@ -11522,31 +11354,31 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>272</v>
+        <v>469</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>273</v>
+        <v>470</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>81</v>
+        <v>474</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11556,7 +11388,7 @@
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>81</v>
@@ -11565,18 +11397,16 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>209</v>
+        <v>475</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>276</v>
+        <v>477</v>
       </c>
       <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11624,7 +11454,7 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11639,31 +11469,31 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>279</v>
+        <v>479</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11682,20 +11512,16 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>282</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>283</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11743,7 +11569,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>287</v>
+        <v>483</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11758,27 +11584,27 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>288</v>
+        <v>489</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11792,7 +11618,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
@@ -11801,20 +11627,16 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>209</v>
+        <v>494</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11838,13 +11660,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11862,7 +11684,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>295</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11880,53 +11702,53 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>297</v>
+        <v>499</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>81</v>
+        <v>502</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>282</v>
+        <v>503</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11977,7 +11799,7 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11989,34 +11811,34 @@
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12035,16 +11857,16 @@
         <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>230</v>
+        <v>513</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12070,11 +11892,13 @@
         <v>81</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y81" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z81" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>81</v>
@@ -12092,7 +11916,7 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12107,31 +11931,31 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12147,18 +11971,20 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>81</v>
@@ -12183,13 +12009,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12207,7 +12033,7 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>212</v>
+        <v>522</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12219,19 +12045,19 @@
         <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>213</v>
+        <v>531</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12239,42 +12065,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>192</v>
+        <v>534</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>135</v>
+        <v>513</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>215</v>
+        <v>535</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>216</v>
+        <v>536</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>195</v>
+        <v>537</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12312,19 +12138,19 @@
         <v>81</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>218</v>
+        <v>533</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12336,19 +12162,19 @@
         <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>81</v>
+        <v>538</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>213</v>
+        <v>540</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12356,10 +12182,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12367,7 +12193,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>90</v>
@@ -12382,20 +12208,16 @@
         <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>242</v>
+        <v>542</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12419,13 +12241,11 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>81</v>
+        <v>544</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12443,7 +12263,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12461,13 +12281,13 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>248</v>
+        <v>545</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12475,10 +12295,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12590,10 +12410,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12707,10 +12527,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12718,7 +12538,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>90</v>
@@ -12733,19 +12553,19 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>81</v>
@@ -12794,13 +12614,13 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>81</v>
@@ -12812,10 +12632,10 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -12826,10 +12646,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>499</v>
+        <v>549</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12849,20 +12669,18 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12911,7 +12729,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12923,16 +12741,16 @@
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12943,44 +12761,44 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>81</v>
       </c>
@@ -13016,40 +12834,40 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -13060,10 +12878,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13071,7 +12889,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -13086,17 +12904,19 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>81</v>
@@ -13145,7 +12965,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13163,10 +12983,10 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -13177,10 +12997,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13203,20 +13023,18 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>81</v>
       </c>
@@ -13264,7 +13082,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13282,10 +13100,10 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13296,10 +13114,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13307,13 +13125,13 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>81</v>
@@ -13322,19 +13140,17 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13383,7 +13199,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13401,10 +13217,10 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
@@ -13415,24 +13231,24 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>81</v>
@@ -13441,18 +13257,18 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>506</v>
+        <v>275</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13476,13 +13292,13 @@
         <v>81</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -13500,16 +13316,16 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>504</v>
+        <v>278</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13518,24 +13334,24 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13558,17 +13374,19 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>515</v>
+        <v>282</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>283</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13617,7 +13435,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>514</v>
+        <v>287</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13635,10 +13453,10 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>513</v>
+        <v>288</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>519</v>
+        <v>289</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13649,10 +13467,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13660,13 +13478,13 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>81</v>
@@ -13675,16 +13493,20 @@
         <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>521</v>
+        <v>209</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>522</v>
+        <v>291</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13732,10 +13554,10 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>520</v>
+        <v>295</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>90</v>
@@ -13747,38 +13569,38 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>525</v>
+        <v>296</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>526</v>
+        <v>297</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>81</v>
@@ -13790,13 +13612,13 @@
         <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13847,13 +13669,13 @@
         <v>81</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>81</v>
@@ -13862,31 +13684,31 @@
         <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>538</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13896,7 +13718,7 @@
         <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>81</v>
@@ -13905,15 +13727,17 @@
         <v>91</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>541</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>81</v>
@@ -13938,13 +13762,11 @@
         <v>81</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>81</v>
+        <v>566</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>81</v>
@@ -13962,13 +13784,13 @@
         <v>81</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>81</v>
@@ -13977,27 +13799,27 @@
         <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14008,7 +13830,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>81</v>
@@ -14020,15 +13842,17 @@
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>81</v>
@@ -14053,13 +13877,13 @@
         <v>81</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>81</v>
@@ -14077,13 +13901,13 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>81</v>
@@ -14092,56 +13916,56 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>556</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>558</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14192,13 +14016,13 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>81</v>
@@ -14207,38 +14031,38 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>565</v>
+        <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>566</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>91</v>
@@ -14247,19 +14071,19 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14297,25 +14121,25 @@
         <v>81</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>81</v>
@@ -14324,31 +14148,33 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="D101" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14358,25 +14184,25 @@
         <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>230</v>
+        <v>599</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14402,13 +14228,13 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
@@ -14426,13 +14252,13 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>81</v>
@@ -14441,16 +14267,16 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>81</v>
@@ -14458,18 +14284,20 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="D102" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14481,19 +14309,19 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14543,7 +14371,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14567,7 +14395,7 @@
         <v>596</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>81</v>
@@ -14575,21 +14403,23 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="D103" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>91</v>
@@ -14598,18 +14428,20 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>230</v>
+        <v>607</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14634,11 +14466,13 @@
         <v>81</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>81</v>
@@ -14656,7 +14490,7 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14671,16 +14505,16 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>81</v>
@@ -14688,14 +14522,16 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="D104" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14705,7 +14541,7 @@
         <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>81</v>
@@ -14714,15 +14550,17 @@
         <v>81</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>209</v>
+        <v>611</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>210</v>
+        <v>612</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>81</v>
@@ -14771,28 +14609,28 @@
         <v>81</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>212</v>
+        <v>586</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>213</v>
+        <v>596</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>81</v>
@@ -14803,24 +14641,26 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="D105" t="s" s="2">
-        <v>192</v>
+        <v>587</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>81</v>
@@ -14829,16 +14669,16 @@
         <v>81</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>135</v>
+        <v>615</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>215</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>216</v>
+        <v>590</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>195</v>
+        <v>591</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14876,19 +14716,19 @@
         <v>81</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>218</v>
+        <v>586</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14900,16 +14740,16 @@
         <v>81</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>213</v>
+        <v>596</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>81</v>
@@ -14920,14 +14760,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="D106" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14943,23 +14785,21 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>241</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>242</v>
+        <v>620</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>243</v>
+        <v>590</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>81</v>
       </c>
@@ -15007,7 +14847,7 @@
         <v>81</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>246</v>
+        <v>586</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -15022,13 +14862,13 @@
         <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>247</v>
+        <v>595</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>248</v>
+        <v>596</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>81</v>
@@ -15039,14 +14879,16 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="D107" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15056,7 +14898,7 @@
         <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>81</v>
@@ -15065,15 +14907,17 @@
         <v>81</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>209</v>
+        <v>623</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>210</v>
+        <v>624</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>81</v>
@@ -15122,28 +14966,28 @@
         <v>81</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>212</v>
+        <v>586</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>213</v>
+        <v>596</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>81</v>
@@ -15154,24 +14998,26 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="D108" t="s" s="2">
-        <v>192</v>
+        <v>587</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>81</v>
@@ -15180,16 +15026,16 @@
         <v>81</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>135</v>
+        <v>627</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>215</v>
+        <v>628</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>216</v>
+        <v>590</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>195</v>
+        <v>591</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15227,19 +15073,19 @@
         <v>81</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>218</v>
+        <v>586</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15251,16 +15097,16 @@
         <v>81</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>81</v>
+        <v>595</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>213</v>
+        <v>596</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>81</v>
@@ -15271,18 +15117,20 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="D109" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>90</v>
@@ -15294,23 +15142,21 @@
         <v>81</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>104</v>
+        <v>631</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>252</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>253</v>
+        <v>590</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>81</v>
       </c>
@@ -15358,13 +15204,13 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>256</v>
+        <v>586</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>81</v>
@@ -15373,13 +15219,13 @@
         <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>257</v>
+        <v>595</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>258</v>
+        <v>596</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>81</v>
@@ -15390,10 +15236,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15404,7 +15250,7 @@
         <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>81</v>
@@ -15416,16 +15262,16 @@
         <v>91</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>209</v>
+        <v>634</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>260</v>
+        <v>635</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>261</v>
+        <v>636</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>262</v>
+        <v>637</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15475,13 +15321,13 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>263</v>
+        <v>633</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>81</v>
@@ -15493,10 +15339,10 @@
         <v>81</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>264</v>
+        <v>638</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>265</v>
+        <v>639</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>81</v>
@@ -15507,24 +15353,24 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>81</v>
+        <v>641</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>81</v>
@@ -15533,17 +15379,19 @@
         <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>267</v>
+        <v>642</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O111" t="s" s="2">
-        <v>269</v>
+        <v>645</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15568,13 +15416,13 @@
         <v>81</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>81</v>
+        <v>646</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>81</v>
@@ -15592,13 +15440,13 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>271</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>81</v>
@@ -15610,24 +15458,24 @@
         <v>81</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>272</v>
+        <v>638</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>273</v>
+        <v>648</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>81</v>
+        <v>649</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15638,30 +15486,28 @@
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>209</v>
+        <v>651</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>276</v>
+        <v>652</v>
       </c>
       <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>81</v>
       </c>
@@ -15709,13 +15555,13 @@
         <v>81</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>278</v>
+        <v>650</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>81</v>
@@ -15724,27 +15570,27 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>81</v>
+        <v>653</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>279</v>
+        <v>457</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>280</v>
+        <v>654</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>81</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15767,20 +15613,16 @@
         <v>91</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>283</v>
+        <v>657</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>81</v>
       </c>
@@ -15828,7 +15670,7 @@
         <v>81</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>287</v>
+        <v>656</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15846,10 +15688,10 @@
         <v>81</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>288</v>
+        <v>457</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>289</v>
+        <v>659</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>81</v>
@@ -15860,10 +15702,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15874,7 +15716,7 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>81</v>
@@ -15883,23 +15725,21 @@
         <v>81</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>209</v>
+        <v>661</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>291</v>
+        <v>662</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>292</v>
+        <v>663</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>81</v>
       </c>
@@ -15947,13 +15787,13 @@
         <v>81</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>295</v>
+        <v>660</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>81</v>
@@ -15962,2375 +15802,23 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>81</v>
+        <v>665</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>297</v>
+        <v>666</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y116" s="2"/>
-      <c r="Z116" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O122" s="2"/>
-      <c r="P122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="D124" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="D125" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="D127" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="D128" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="D129" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO134" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO134">
+  <autoFilter ref="A1:AO114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18340,7 +15828,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI133">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
 </t>
   </si>
   <si>
-    <t>Corresponde al Identificador de la Interconsulta. Se asigna desde nivel central.</t>
+    <t>Identifiers assigned to this order</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -671,7 +671,221 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.id</t>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>Estado de la Interconsulta. Por defecto, se utiliza 'draft'</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>Tipo de solicitud</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Modalidad de atención</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -690,7 +904,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.extension</t>
+    <t>ServiceRequest.category.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -705,71 +919,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSTipoIdentificadorSR</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding</t>
+    <t>ServiceRequest.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -797,13 +947,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type.coding.system</t>
+    <t>ServiceRequest.category.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category.coding.system</t>
   </si>
   <si>
     <t>Sistema terminológico, url/uri/uuid</t>
@@ -827,7 +977,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.version</t>
+    <t>ServiceRequest.category.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -848,7 +998,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.code</t>
+    <t>ServiceRequest.category.coding.code</t>
   </si>
   <si>
     <t>Código definido en un sistema terminológico</t>
@@ -860,9 +1010,6 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -872,7 +1019,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.display</t>
+    <t>ServiceRequest.category.coding.display</t>
   </si>
   <si>
     <t>Representación visual, definida por el sistema terminológico</t>
@@ -893,7 +1040,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.coding.userSelected</t>
+    <t>ServiceRequest.category.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -921,7 +1068,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.type.text</t>
+    <t>ServiceRequest.category.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -943,344 +1090,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Valor del identificador</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>Estado de la Interconsulta. Por defecto, se utiliza 'draft'</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>Tipo de solicitud</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Modalidad de atención</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.system</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.display</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category.text</t>
   </si>
   <si>
     <t>ServiceRequest.priority</t>
@@ -2414,7 +2223,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2424,7 +2233,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="60.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="35.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2442,7 +2251,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4823,10 +4632,10 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
@@ -4940,7 +4749,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4949,7 +4758,7 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>209</v>
@@ -4960,7 +4769,9 @@
       <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -5009,28 +4820,28 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -5041,14 +4852,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5064,19 +4875,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5114,19 +4925,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5138,16 +4949,16 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -5158,46 +4969,42 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -5221,13 +5028,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5245,13 +5052,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -5260,10 +5067,10 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>228</v>
@@ -5284,17 +5091,17 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>81</v>
@@ -5303,20 +5110,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5340,11 +5143,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5362,13 +5167,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5377,13 +5182,13 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5394,14 +5199,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5417,19 +5222,23 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5477,7 +5286,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5489,16 +5298,16 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5509,42 +5318,42 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5555,7 +5364,7 @@
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5570,66 +5379,66 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5646,26 +5455,24 @@
         <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5674,7 +5481,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5689,13 +5496,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5713,13 +5520,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5728,16 +5535,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5745,10 +5552,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5762,25 +5569,29 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5804,13 +5615,11 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5828,31 +5637,31 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5860,21 +5669,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5886,17 +5695,15 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5933,31 +5740,31 @@
         <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5966,7 +5773,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5977,46 +5784,44 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -6052,40 +5857,40 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6096,10 +5901,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6107,13 +5912,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -6122,18 +5927,20 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -6181,13 +5988,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -6199,10 +6006,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6213,10 +6020,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6224,33 +6031,31 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6259,7 +6064,7 @@
         <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>81</v>
@@ -6298,7 +6103,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6310,16 +6115,16 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6330,44 +6135,44 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6403,40 +6208,40 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6447,10 +6252,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6464,7 +6269,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -6473,19 +6278,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6534,7 +6339,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6552,10 +6357,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6566,10 +6371,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6592,20 +6397,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6653,7 +6456,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6671,10 +6474,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6685,10 +6488,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6696,13 +6499,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>81</v>
@@ -6711,19 +6514,17 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6736,7 +6537,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6772,7 +6573,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6790,10 +6591,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6804,10 +6605,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6815,7 +6616,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6830,18 +6631,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6853,7 +6654,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6889,7 +6690,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6907,10 +6708,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6921,10 +6722,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6947,16 +6748,20 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -7004,7 +6809,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7022,10 +6827,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -7036,10 +6841,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7062,18 +6867,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -7121,7 +6928,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7139,10 +6946,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7153,10 +6960,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7167,10 +6974,10 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
@@ -7179,22 +6986,22 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7214,13 +7021,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -7238,13 +7045,13 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
@@ -7253,16 +7060,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7270,10 +7077,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7284,34 +7091,38 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="R42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7355,13 +7166,13 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
@@ -7370,13 +7181,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7387,24 +7198,24 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>81</v>
@@ -7413,15 +7224,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7446,13 +7259,11 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>368</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7470,13 +7281,13 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
@@ -7485,38 +7296,38 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -7525,16 +7336,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7585,28 +7396,28 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7617,21 +7428,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7640,23 +7451,21 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7692,40 +7501,40 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7736,10 +7545,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7756,24 +7565,26 @@
         <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7782,7 +7593,7 @@
         <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>81</v>
@@ -7797,13 +7608,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7821,13 +7632,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7836,27 +7647,27 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>375</v>
+        <v>295</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7864,32 +7675,30 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7899,7 +7708,7 @@
         <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>81</v>
@@ -7914,13 +7723,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7938,10 +7747,10 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>90</v>
@@ -7950,19 +7759,19 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7970,46 +7779,44 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -8033,29 +7840,31 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8067,19 +7876,19 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>282</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -8087,10 +7896,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8104,25 +7913,29 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -8170,7 +7983,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8182,16 +7995,16 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -8202,21 +8015,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8225,19 +8038,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8275,40 +8088,40 @@
         <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8319,10 +8132,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8345,19 +8158,17 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8406,13 +8217,13 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
@@ -8424,10 +8235,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8438,10 +8249,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8455,25 +8266,27 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8521,7 +8334,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8533,16 +8346,16 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8553,21 +8366,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8576,21 +8389,23 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8626,40 +8441,40 @@
         <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8670,10 +8485,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8687,7 +8502,7 @@
         <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8696,19 +8511,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8757,7 +8572,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8775,10 +8590,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8789,21 +8604,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8815,16 +8630,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>261</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8850,13 +8665,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8874,16 +8689,16 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>263</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>102</v>
@@ -8892,24 +8707,24 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>81</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8917,13 +8732,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>81</v>
@@ -8932,17 +8747,17 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>267</v>
+        <v>397</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>268</v>
+        <v>398</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8991,7 +8806,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9009,10 +8824,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -9023,10 +8838,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9034,7 +8849,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -9049,18 +8864,16 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>275</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>276</v>
+        <v>404</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9108,10 +8921,10 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
@@ -9123,31 +8936,31 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>279</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9166,20 +8979,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>282</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -9227,7 +9036,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9242,31 +9051,31 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>288</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9285,20 +9094,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9346,7 +9151,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9361,27 +9166,27 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>426</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9395,7 +9200,7 @@
         <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>81</v>
@@ -9404,22 +9209,20 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9439,13 +9242,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9463,7 +9266,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9478,69 +9281,63 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9584,7 +9381,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9599,31 +9396,31 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9642,16 +9439,16 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9677,11 +9474,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9699,7 +9498,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9714,31 +9513,31 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9754,18 +9553,20 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>210</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9790,13 +9591,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9814,7 +9615,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>212</v>
+        <v>459</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9826,19 +9627,19 @@
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>213</v>
+        <v>468</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9846,42 +9647,42 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>215</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>216</v>
+        <v>473</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>195</v>
+        <v>474</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9919,19 +9720,19 @@
         <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>218</v>
+        <v>470</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9943,19 +9744,19 @@
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>213</v>
+        <v>477</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9963,10 +9764,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9974,7 +9775,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9989,20 +9790,16 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>242</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -10026,13 +9823,11 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -10050,7 +9845,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>246</v>
+        <v>478</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10068,13 +9863,13 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>248</v>
+        <v>482</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -10082,10 +9877,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10108,13 +9903,13 @@
         <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10165,7 +9960,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10186,7 +9981,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10197,10 +9992,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10226,10 +10021,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>195</v>
@@ -10273,7 +10068,7 @@
         <v>138</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
@@ -10282,7 +10077,7 @@
         <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10303,7 +10098,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10314,10 +10109,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10325,7 +10120,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>
@@ -10340,19 +10135,19 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10401,13 +10196,13 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
@@ -10419,10 +10214,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10433,10 +10228,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10456,20 +10251,18 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>81</v>
@@ -10518,7 +10311,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10530,16 +10323,16 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10550,44 +10343,44 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10623,40 +10416,40 @@
         <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10667,10 +10460,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10678,7 +10471,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>90</v>
@@ -10693,17 +10486,19 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O71" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10752,7 +10547,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10770,10 +10565,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10784,10 +10579,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10810,20 +10605,18 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10871,7 +10664,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10889,10 +10682,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10903,10 +10696,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10914,13 +10707,13 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>81</v>
@@ -10929,19 +10722,17 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
@@ -10990,7 +10781,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11008,10 +10799,10 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -11022,24 +10813,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
@@ -11048,18 +10839,18 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>322</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -11083,13 +10874,13 @@
         <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>81</v>
@@ -11107,16 +10898,16 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>448</v>
+        <v>325</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>102</v>
@@ -11125,24 +10916,24 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>457</v>
+        <v>326</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>434</v>
+        <v>327</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>436</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11165,17 +10956,19 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>459</v>
+        <v>329</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11224,7 +11017,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>458</v>
+        <v>334</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11242,10 +11035,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>457</v>
+        <v>335</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>463</v>
+        <v>336</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11256,10 +11049,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11267,13 +11060,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
@@ -11282,16 +11075,20 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>465</v>
+        <v>278</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11339,10 +11136,10 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>90</v>
@@ -11354,38 +11151,38 @@
         <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>469</v>
+        <v>343</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>470</v>
+        <v>344</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11397,13 +11194,13 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11454,13 +11251,13 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
@@ -11469,31 +11266,31 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>482</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>484</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11503,7 +11300,7 @@
         <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>81</v>
@@ -11512,15 +11309,17 @@
         <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>485</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
@@ -11545,13 +11344,11 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
@@ -11569,13 +11366,13 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
@@ -11584,27 +11381,27 @@
         <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11615,7 +11412,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>81</v>
@@ -11627,15 +11424,17 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11660,13 +11459,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11684,13 +11483,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11699,56 +11498,56 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>500</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>502</v>
+        <v>81</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11799,13 +11598,13 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
@@ -11814,38 +11613,38 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
+        <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>510</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>91</v>
@@ -11854,19 +11653,19 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11904,25 +11703,25 @@
         <v>81</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
@@ -11931,31 +11730,33 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>521</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11965,25 +11766,25 @@
         <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>230</v>
+        <v>536</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12009,13 +11810,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -12033,13 +11834,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -12048,16 +11849,16 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>81</v>
@@ -12065,18 +11866,20 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="D83" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>90</v>
@@ -12088,19 +11891,19 @@
         <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12150,7 +11953,7 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12165,16 +11968,16 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>81</v>
@@ -12182,21 +11985,23 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="D84" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>91</v>
@@ -12205,18 +12010,20 @@
         <v>81</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>544</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12241,11 +12048,13 @@
         <v>81</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12263,7 +12072,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12278,16 +12087,16 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>81</v>
@@ -12298,11 +12107,13 @@
         <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="D85" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12312,7 +12123,7 @@
         <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>81</v>
@@ -12321,15 +12132,17 @@
         <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>209</v>
+        <v>548</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>210</v>
+        <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12378,28 +12191,28 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>212</v>
+        <v>523</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>81</v>
@@ -12410,24 +12223,26 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="D86" t="s" s="2">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>81</v>
@@ -12436,16 +12251,16 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>135</v>
+        <v>552</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>215</v>
+        <v>553</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>216</v>
+        <v>527</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>195</v>
+        <v>528</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12483,19 +12298,19 @@
         <v>81</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12507,16 +12322,16 @@
         <v>81</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>81</v>
@@ -12527,14 +12342,16 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="D87" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12550,23 +12367,21 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>241</v>
+        <v>556</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>242</v>
+        <v>557</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>243</v>
+        <v>527</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>81</v>
       </c>
@@ -12614,7 +12429,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>246</v>
+        <v>523</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12629,13 +12444,13 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>247</v>
+        <v>532</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>248</v>
+        <v>533</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>81</v>
@@ -12646,14 +12461,16 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12663,7 +12480,7 @@
         <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>81</v>
@@ -12672,15 +12489,17 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>209</v>
+        <v>560</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>210</v>
+        <v>561</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12729,28 +12548,28 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>212</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12761,24 +12580,26 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="D89" t="s" s="2">
-        <v>192</v>
+        <v>524</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>81</v>
@@ -12787,16 +12608,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>564</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>527</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>195</v>
+        <v>528</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12834,19 +12655,19 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>523</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12858,16 +12679,16 @@
         <v>81</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12878,18 +12699,20 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="D90" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12901,23 +12724,21 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>568</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>252</v>
+        <v>569</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>253</v>
+        <v>527</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12965,13 +12786,13 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>256</v>
+        <v>523</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>81</v>
@@ -12980,13 +12801,13 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>257</v>
+        <v>532</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>258</v>
+        <v>533</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -12997,10 +12818,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13011,7 +12832,7 @@
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>81</v>
@@ -13023,16 +12844,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>209</v>
+        <v>571</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>260</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>261</v>
+        <v>573</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>262</v>
+        <v>574</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13082,13 +12903,13 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>263</v>
+        <v>570</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>81</v>
@@ -13100,10 +12921,10 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -13114,24 +12935,24 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>81</v>
@@ -13140,17 +12961,19 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>267</v>
+        <v>579</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>269</v>
+        <v>582</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>81</v>
@@ -13175,13 +12998,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13199,13 +13022,13 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>271</v>
+        <v>577</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>81</v>
@@ -13217,24 +13040,24 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>272</v>
+        <v>575</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13245,30 +13068,28 @@
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>209</v>
+        <v>588</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>276</v>
+        <v>589</v>
       </c>
       <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
       </c>
@@ -13316,13 +13137,13 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>278</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>81</v>
@@ -13331,27 +13152,27 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>81</v>
+        <v>590</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>279</v>
+        <v>394</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>280</v>
+        <v>591</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13374,20 +13195,16 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>283</v>
+        <v>594</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>81</v>
       </c>
@@ -13435,7 +13252,7 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>287</v>
+        <v>593</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13453,10 +13270,10 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>289</v>
+        <v>596</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13467,10 +13284,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13481,7 +13298,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>81</v>
@@ -13490,23 +13307,21 @@
         <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>209</v>
+        <v>598</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>291</v>
+        <v>599</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>292</v>
+        <v>600</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>81</v>
       </c>
@@ -13554,13 +13369,13 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>295</v>
+        <v>597</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>81</v>
@@ -13569,2256 +13384,23 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>81</v>
+        <v>602</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>297</v>
+        <v>603</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y97" s="2"/>
-      <c r="Z97" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO114" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO114">
+  <autoFilter ref="A1:AO95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15828,7 +13410,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3557" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -647,7 +647,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiers assigned to this order</t>
+    <t>Identificador de la Interconsulta (Se asigna a nivel central)</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -669,6 +669,202 @@
   </si>
   <si>
     <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>Identificador de la Interconsulta</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>ServiceRequest.instantiatesCanonical</t>
@@ -803,9 +999,6 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of a service order.</t>
   </si>
   <si>
@@ -860,10 +1053,6 @@
     <t>ServiceRequest.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Modalidad de atención</t>
   </si>
   <si>
@@ -888,35 +1077,7 @@
     <t>ServiceRequest.category.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.category.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ServiceRequest.category.coding</t>
@@ -2223,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2251,7 +2412,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -4635,7 +4796,7 @@
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>81</v>
@@ -4749,7 +4910,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>81</v>
@@ -4758,7 +4919,7 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>209</v>
@@ -4769,9 +4930,7 @@
       <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4820,28 +4979,28 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4852,14 +5011,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4875,19 +5034,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4925,19 +5084,19 @@
         <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4949,16 +5108,16 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4969,42 +5128,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -5028,13 +5191,13 @@
         <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>81</v>
@@ -5052,13 +5215,13 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
@@ -5067,10 +5230,10 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>228</v>
@@ -5091,14 +5254,14 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -5110,16 +5273,20 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5143,13 +5310,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5167,13 +5334,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5182,13 +5349,13 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5199,14 +5366,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5225,19 +5392,19 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5250,7 +5417,7 @@
         <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>81</v>
@@ -5286,7 +5453,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5301,13 +5468,13 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5318,10 +5485,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5329,7 +5496,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5338,22 +5505,22 @@
         <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5364,10 +5531,10 @@
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>81</v>
@@ -5379,13 +5546,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5403,10 +5570,10 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>90</v>
@@ -5418,27 +5585,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5446,22 +5613,22 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>259</v>
@@ -5469,9 +5636,7 @@
       <c r="M28" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5481,7 +5646,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5496,13 +5661,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5520,10 +5685,10 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -5535,16 +5700,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5552,10 +5717,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5569,7 +5734,7 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>81</v>
@@ -5578,20 +5743,18 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5615,11 +5778,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5637,13 +5802,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5655,13 +5820,13 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5669,10 +5834,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5683,7 +5848,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5692,18 +5857,20 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5752,28 +5919,28 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5784,14 +5951,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5807,19 +5974,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5857,19 +6024,19 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5881,16 +6048,16 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5901,24 +6068,24 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -5927,20 +6094,16 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5988,7 +6151,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6003,13 +6166,13 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6020,21 +6183,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6043,16 +6206,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6103,28 +6266,28 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6135,21 +6298,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6158,21 +6321,23 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6208,40 +6373,40 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6252,10 +6417,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6263,7 +6428,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
@@ -6272,26 +6437,24 @@
         <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6300,7 +6463,7 @@
         <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>81</v>
@@ -6315,13 +6478,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6339,10 +6502,10 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -6354,27 +6517,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6382,31 +6545,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6417,7 +6580,7 @@
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6432,13 +6595,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6456,10 +6619,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>90</v>
@@ -6471,16 +6634,16 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>133</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6488,10 +6651,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6499,7 +6662,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>90</v>
@@ -6514,17 +6677,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6549,13 +6714,11 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6573,13 +6736,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6591,13 +6754,13 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -6605,10 +6768,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6622,27 +6785,25 @@
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6690,7 +6851,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6702,16 +6863,16 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6722,21 +6883,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6745,23 +6906,21 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6797,40 +6956,40 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6841,10 +7000,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6852,13 +7011,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
@@ -6867,19 +7026,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6928,13 +7087,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6946,10 +7105,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6960,10 +7119,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6977,31 +7136,29 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7021,13 +7178,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -7045,7 +7202,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7057,19 +7214,19 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7077,52 +7234,48 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>216</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q42" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7154,40 +7307,40 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7198,18 +7351,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>90</v>
@@ -7224,18 +7377,20 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7259,11 +7414,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7281,7 +7438,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7296,27 +7453,27 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7336,18 +7493,20 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7396,7 +7555,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7408,16 +7567,16 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7428,44 +7587,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7501,40 +7660,40 @@
         <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>282</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7545,10 +7704,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7556,7 +7715,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7571,19 +7730,17 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>293</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7632,13 +7789,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7650,10 +7807,10 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>296</v>
+        <v>380</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7664,10 +7821,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7687,19 +7844,23 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7747,7 +7908,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7759,16 +7920,16 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7779,21 +7940,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7802,21 +7963,23 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>284</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7852,40 +8015,40 @@
         <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>282</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7896,10 +8059,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7922,24 +8085,22 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7959,13 +8120,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7983,7 +8144,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7998,16 +8159,16 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>407</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8015,10 +8176,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8035,28 +8196,32 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>278</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8100,7 +8265,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8115,13 +8280,13 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8132,14 +8297,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8158,18 +8323,18 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8193,13 +8358,11 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8217,7 +8380,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8232,27 +8395,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>319</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8266,27 +8429,25 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8334,7 +8495,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8346,16 +8507,16 @@
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8366,21 +8527,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8389,23 +8550,21 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8441,40 +8600,40 @@
         <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8485,10 +8644,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8496,13 +8655,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8511,19 +8670,19 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8572,13 +8731,13 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>81</v>
@@ -8590,10 +8749,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8604,21 +8763,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8627,20 +8786,18 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8665,13 +8822,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8689,53 +8846,53 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>385</v>
+        <v>212</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>393</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>371</v>
+        <v>213</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8744,21 +8901,21 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>396</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8794,40 +8951,40 @@
         <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>400</v>
+        <v>213</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8838,10 +8995,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8849,7 +9006,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
@@ -8864,16 +9021,20 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
       </c>
@@ -8921,10 +9082,10 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
@@ -8936,31 +9097,31 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8979,15 +9140,17 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9036,7 +9199,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9051,41 +9214,41 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
@@ -9094,16 +9257,18 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9151,7 +9316,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9166,27 +9331,27 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9200,7 +9365,7 @@
         <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>81</v>
@@ -9209,16 +9374,18 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9242,13 +9409,13 @@
         <v>81</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>434</v>
+        <v>81</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9266,7 +9433,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9284,38 +9451,38 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>81</v>
@@ -9324,16 +9491,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9381,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9396,41 +9567,41 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>445</v>
+        <v>389</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
@@ -9439,18 +9610,20 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>209</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9498,7 +9671,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9513,38 +9686,38 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>458</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9556,16 +9729,16 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9591,13 +9764,13 @@
         <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>81</v>
@@ -9615,56 +9788,56 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>468</v>
+        <v>424</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>81</v>
@@ -9673,18 +9846,18 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9732,13 +9905,13 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -9747,16 +9920,16 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9764,10 +9937,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9775,7 +9948,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9790,13 +9963,13 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>269</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9823,11 +9996,13 @@
         <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>81</v>
@@ -9845,13 +10020,13 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>81</v>
@@ -9860,31 +10035,31 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9900,16 +10075,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>278</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>279</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9960,7 +10135,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9972,41 +10147,41 @@
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>282</v>
+        <v>470</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>81</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>192</v>
+        <v>474</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>81</v>
@@ -10015,20 +10190,18 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>475</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>284</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -10065,54 +10238,54 @@
         <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>287</v>
+        <v>473</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>282</v>
+        <v>480</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10120,13 +10293,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>81</v>
@@ -10135,20 +10308,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>289</v>
+        <v>484</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10172,13 +10341,13 @@
         <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>81</v>
+        <v>488</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>81</v>
@@ -10196,13 +10365,13 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
@@ -10214,53 +10383,53 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>296</v>
+        <v>489</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>81</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>280</v>
+        <v>495</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10311,7 +10480,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10323,62 +10492,62 @@
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>282</v>
+        <v>498</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>81</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>503</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>284</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>285</v>
+        <v>505</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>195</v>
+        <v>506</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10416,68 +10585,68 @@
         <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>287</v>
+        <v>501</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>81</v>
+        <v>508</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>81</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>81</v>
+        <v>513</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>81</v>
@@ -10486,20 +10655,18 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>300</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>301</v>
+        <v>515</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10523,13 +10690,13 @@
         <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>81</v>
@@ -10547,7 +10714,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>304</v>
+        <v>512</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10562,16 +10729,16 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>305</v>
+        <v>520</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>306</v>
+        <v>521</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10579,24 +10746,24 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>81</v>
@@ -10605,16 +10772,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>278</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>308</v>
+        <v>525</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>309</v>
+        <v>526</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>310</v>
+        <v>527</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10664,13 +10831,13 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>311</v>
+        <v>523</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>81</v>
@@ -10679,16 +10846,16 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>312</v>
+        <v>529</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>313</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10696,10 +10863,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10707,7 +10874,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>90</v>
@@ -10722,18 +10889,16 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>315</v>
+        <v>532</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>316</v>
+        <v>533</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10757,13 +10922,11 @@
         <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>81</v>
@@ -10781,13 +10944,13 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>318</v>
+        <v>531</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -10799,13 +10962,13 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>320</v>
+        <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10813,10 +10976,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>491</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10830,27 +10993,25 @@
         <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>323</v>
+        <v>211</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
       </c>
@@ -10898,7 +11059,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10910,16 +11071,16 @@
         <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>327</v>
+        <v>213</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -10930,21 +11091,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>492</v>
+        <v>537</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>81</v>
@@ -10953,23 +11114,21 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>329</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>81</v>
       </c>
@@ -11005,40 +11164,40 @@
         <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>336</v>
+        <v>213</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11049,10 +11208,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11060,13 +11219,13 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>81</v>
@@ -11075,19 +11234,19 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11136,13 +11295,13 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>81</v>
@@ -11154,10 +11313,10 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11168,10 +11327,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11182,7 +11341,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11191,16 +11350,16 @@
         <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>495</v>
+        <v>209</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>496</v>
+        <v>210</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>497</v>
+        <v>211</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11251,19 +11410,19 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -11272,10 +11431,10 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>498</v>
+        <v>213</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>469</v>
+        <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11283,42 +11442,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>500</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>501</v>
+        <v>216</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>502</v>
+        <v>195</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11344,29 +11503,31 @@
         <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>499</v>
+        <v>218</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11378,19 +11539,19 @@
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>505</v>
+        <v>81</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>506</v>
+        <v>213</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>81</v>
@@ -11398,10 +11559,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11409,13 +11570,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>81</v>
@@ -11424,18 +11585,20 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>509</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>510</v>
+        <v>353</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>511</v>
+        <v>354</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>81</v>
       </c>
@@ -11483,13 +11646,13 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>508</v>
+        <v>357</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>81</v>
@@ -11498,16 +11661,16 @@
         <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>514</v>
+        <v>358</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>515</v>
+        <v>359</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11515,10 +11678,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11529,7 +11692,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11538,18 +11701,20 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>517</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>518</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11598,13 +11763,13 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>516</v>
+        <v>364</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
@@ -11613,13 +11778,13 @@
         <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>520</v>
+        <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>521</v>
+        <v>365</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>522</v>
+        <v>366</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
@@ -11630,21 +11795,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>91</v>
@@ -11653,21 +11818,21 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>525</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>368</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11703,25 +11868,25 @@
         <v>81</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>523</v>
+        <v>371</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
@@ -11730,13 +11895,13 @@
         <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>533</v>
+        <v>373</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11747,16 +11912,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11772,21 +11935,21 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>536</v>
+        <v>209</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>537</v>
+        <v>375</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11834,13 +11997,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>523</v>
+        <v>378</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -11849,13 +12012,13 @@
         <v>102</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>532</v>
+        <v>379</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>533</v>
+        <v>380</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
@@ -11866,16 +12029,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11885,27 +12046,29 @@
         <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K83" t="s" s="2">
-        <v>540</v>
+        <v>382</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>541</v>
+        <v>383</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>527</v>
+        <v>384</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>81</v>
       </c>
@@ -11953,13 +12116,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>523</v>
+        <v>387</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -11968,13 +12131,13 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>533</v>
+        <v>389</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>81</v>
@@ -11985,46 +12148,46 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>544</v>
+        <v>209</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>545</v>
+        <v>391</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>527</v>
+        <v>392</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
       </c>
@@ -12072,13 +12235,13 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>523</v>
+        <v>395</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>81</v>
@@ -12087,13 +12250,13 @@
         <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>532</v>
+        <v>396</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>533</v>
+        <v>397</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>81</v>
@@ -12104,32 +12267,30 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C85" t="s" s="2">
         <v>547</v>
       </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J85" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>548</v>
@@ -12138,11 +12299,9 @@
         <v>549</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>81</v>
@@ -12191,7 +12350,7 @@
         <v>81</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12206,16 +12365,16 @@
         <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>81</v>
@@ -12223,16 +12382,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12248,19 +12405,19 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>552</v>
+        <v>230</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>553</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12286,13 +12443,11 @@
         <v>81</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>81</v>
+        <v>556</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>81</v>
@@ -12310,7 +12465,7 @@
         <v>81</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12325,16 +12480,16 @@
         <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>81</v>
@@ -12342,44 +12497,42 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J87" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>527</v>
+        <v>564</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12429,7 +12582,7 @@
         <v>81</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12444,16 +12597,16 @@
         <v>102</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>81</v>
@@ -12461,26 +12614,24 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>524</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>81</v>
@@ -12489,17 +12640,15 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>81</v>
@@ -12548,7 +12697,7 @@
         <v>81</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12563,13 +12712,13 @@
         <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>81</v>
@@ -12580,23 +12729,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>91</v>
@@ -12608,16 +12755,16 @@
         <v>81</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12655,19 +12802,19 @@
         <v>81</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>582</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>81</v>
+        <v>583</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12682,13 +12829,13 @@
         <v>102</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>81</v>
@@ -12699,16 +12846,16 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>524</v>
+        <v>577</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12727,16 +12874,16 @@
         <v>81</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>527</v>
+        <v>580</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>528</v>
+        <v>581</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12786,7 +12933,7 @@
         <v>81</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12801,13 +12948,13 @@
         <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>81</v>
@@ -12818,42 +12965,44 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="D91" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12903,7 +13052,7 @@
         <v>81</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12918,13 +13067,13 @@
         <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>81</v>
@@ -12935,14 +13084,16 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D92" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12952,19 +13103,19 @@
         <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>269</v>
+        <v>597</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>580</v>
@@ -12972,9 +13123,7 @@
       <c r="N92" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="O92" t="s" s="2">
-        <v>582</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>81</v>
       </c>
@@ -12998,13 +13147,13 @@
         <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>81</v>
@@ -13022,7 +13171,7 @@
         <v>81</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13037,41 +13186,43 @@
         <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>586</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="D93" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>81</v>
@@ -13080,15 +13231,17 @@
         <v>81</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>50</v>
+        <v>602</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13137,7 +13290,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13152,31 +13305,33 @@
         <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>394</v>
+        <v>585</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>592</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13186,24 +13341,26 @@
         <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>278</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>81</v>
@@ -13252,13 +13409,13 @@
         <v>81</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>81</v>
@@ -13267,13 +13424,13 @@
         <v>102</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>394</v>
+        <v>585</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>81</v>
@@ -13284,24 +13441,26 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>81</v>
@@ -13310,16 +13469,16 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13369,7 +13528,7 @@
         <v>81</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13384,23 +13543,963 @@
         <v>102</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO95" t="s" s="2">
+      <c r="AM103" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO95">
+  <autoFilter ref="A1:AO103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13410,7 +14509,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="661">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,7 +465,7 @@
     <t>MotivoCierreInterconsulta</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MotivoCierreInterconsulta}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionMotivoCierreInterconsulta}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>RequiereExamen</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolRequiereExamen}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionBoolRequiereExamen}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>AtencionPreferente</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolAtencionPreferente}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionBoolAtencionPreferente}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>ResolutividadAPS</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtBoolResolutividadAPS}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionBoolResolutividadAPS}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>OrigenInterconsulta</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/OrigenInterconsulta}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionOrigenInterconsulta}
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>FundamentoPriorizacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtStringFundamentoPriorizacion}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionStringFundamentoPriorizacion}
 </t>
   </si>
   <si>
@@ -559,7 +559,7 @@
     <t>EstadoInterconsultaCodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EstadoInterconsultaCodigoLE}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionEstadoInterconsultaCodigoLE}
 </t>
   </si>
   <si>
@@ -575,7 +575,7 @@
     <t>EspecialidadMedicaDestinoCodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EspecialidadMedicaDestinoCodigo}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionEspecialidadMedicaDestinoCodigo}
 </t>
   </si>
   <si>
@@ -591,7 +591,7 @@
     <t>SubEspecialidadMedicaDestinoCodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/SubEspecialidadMedicaDestinoCodigo}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionSubEspecialidadMedicaDestinoCodigo}
 </t>
   </si>
   <si>
@@ -607,7 +607,7 @@
     <t>PertinenciaInterconsulta</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PertinenciaInterconsulta}
+    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExtensionPertinenciaInterconsulta}
 </t>
   </si>
   <si>
@@ -1762,11 +1762,11 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ExamenesAnteriores)
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
-    <t>Referencia a la observación</t>
+    <t>Explanation/Justification for service or service</t>
   </si>
   <si>
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
@@ -1887,7 +1887,7 @@
     <t>IndiceComorbilidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarIndiceComorbilidadLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIndiceComorbilidadLE)
 </t>
   </si>
   <si>
@@ -1913,7 +1913,7 @@
     <t>Discapacidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationIniciarDiscapacidadLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationDiscapacidadLE)
 </t>
   </si>
   <si>
@@ -1946,17 +1946,30 @@
     <t>Referencia al motivo de derivación</t>
   </si>
   <si>
-    <t>ServiceRequest.supportingInfo:Examen</t>
-  </si>
-  <si>
-    <t>Examen</t>
+    <t>ServiceRequest.supportingInfo:SolicitudExamen</t>
+  </si>
+  <si>
+    <t>SolicitudExamen</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestExamenLE)
 </t>
   </si>
   <si>
-    <t>Referencia a los examenes</t>
+    <t>Referencia a las solicitudes de examenes</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo:ResultadoExamen</t>
+  </si>
+  <si>
+    <t>ResultadoExamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ObservationResultadoExamen)
+</t>
+  </si>
+  <si>
+    <t>Referencia al los resultados de examenes</t>
   </si>
   <si>
     <t>ServiceRequest.specimen</t>
@@ -2384,7 +2397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2403,7 +2416,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.13671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -13920,11 +13933,13 @@
         <v>623</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="D99" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13934,25 +13949,25 @@
         <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14002,7 +14017,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14017,13 +14032,13 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>81</v>
+        <v>584</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>628</v>
+        <v>585</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>629</v>
+        <v>586</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14034,14 +14049,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>631</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14060,20 +14075,18 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>230</v>
+        <v>628</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14097,13 +14110,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>636</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>637</v>
+        <v>81</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14121,7 +14134,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14139,28 +14152,28 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>639</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14176,19 +14189,23 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>641</v>
+        <v>230</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>50</v>
+        <v>636</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>81</v>
       </c>
@@ -14212,13 +14229,13 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>81</v>
+        <v>640</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>81</v>
+        <v>641</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
@@ -14236,7 +14253,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14251,27 +14268,27 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>645</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14282,7 +14299,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14291,16 +14308,16 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>209</v>
+        <v>645</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>647</v>
+        <v>50</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14351,13 +14368,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14366,19 +14383,19 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="103" hidden="true">
@@ -14397,7 +14414,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -14406,20 +14423,18 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>654</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14474,7 +14489,7 @@
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
@@ -14483,23 +14498,140 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="AL103" t="s" s="2">
+      <c r="L104" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM103" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="AM104" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO103">
+  <autoFilter ref="A1:AO104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14509,7 +14641,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3892" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve"> Razones del porque se prioriza esta Interconsulta.</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Extensión para fundamenta la priorización de la interconsulta</t>
   </si>
   <si>
     <t>ServiceRequest.extension:EstadoInterconsultaCodigo</t>
@@ -1855,19 +1855,6 @@
     <t>Referencia a la condición que especifica el diagnóstico inicial por el cual se emite la IC</t>
   </si>
   <si>
-    <t>ServiceRequest.supportingInfo:ProblemaGES</t>
-  </si>
-  <si>
-    <t>ProblemaGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionIniciarGesLE)
-</t>
-  </si>
-  <si>
-    <t>Referencia a la condición que especifica si es sospecha de GES</t>
-  </si>
-  <si>
     <t>ServiceRequest.supportingInfo:TipoAlergia</t>
   </si>
   <si>
@@ -1926,11 +1913,7 @@
     <t>Prevision</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/CoverageLE)
-</t>
-  </si>
-  <si>
-    <t>Referencia a la previsión del paciente</t>
+    <t>Additional clinical information</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo:motivoDerivacion</t>
@@ -2397,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4194,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -8321,7 +8304,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
@@ -10421,7 +10404,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
@@ -10536,7 +10519,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>90</v>
@@ -10770,7 +10753,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>90</v>
@@ -12994,7 +12977,7 @@
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>91</v>
@@ -13113,7 +13096,7 @@
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>91</v>
@@ -13348,7 +13331,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>90</v>
@@ -13467,7 +13450,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
@@ -13482,10 +13465,10 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>580</v>
@@ -13573,13 +13556,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>577</v>
@@ -13601,10 +13584,10 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>580</v>
@@ -13692,13 +13675,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>577</v>
@@ -13708,7 +13691,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>91</v>
@@ -13720,10 +13703,10 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>580</v>
@@ -13811,13 +13794,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>577</v>
@@ -13827,7 +13810,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>91</v>
@@ -13839,10 +13822,10 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>580</v>
@@ -13930,16 +13913,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13949,25 +13930,25 @@
         <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="K99" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14017,7 +13998,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14032,13 +14013,13 @@
         <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
@@ -14049,14 +14030,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>81</v>
+        <v>630</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14075,18 +14056,20 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>628</v>
+        <v>230</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14110,13 +14093,13 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>81</v>
@@ -14134,7 +14117,7 @@
         <v>81</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14152,28 +14135,28 @@
         <v>81</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>81</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14189,23 +14172,19 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>230</v>
+        <v>640</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>636</v>
+        <v>50</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>81</v>
       </c>
@@ -14229,13 +14208,13 @@
         <v>81</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>640</v>
+        <v>81</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>641</v>
+        <v>81</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>81</v>
@@ -14253,7 +14232,7 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14268,27 +14247,27 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>81</v>
+        <v>642</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>632</v>
+        <v>447</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14299,7 +14278,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14308,16 +14287,16 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>645</v>
+        <v>209</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>50</v>
+        <v>646</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14368,13 +14347,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14383,7 +14362,7 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>647</v>
+        <v>81</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>447</v>
@@ -14395,15 +14374,15 @@
         <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>649</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14414,7 +14393,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>81</v>
@@ -14423,10 +14402,10 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>209</v>
+        <v>650</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>651</v>
@@ -14434,7 +14413,9 @@
       <c r="M103" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="N103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>81</v>
@@ -14483,13 +14464,13 @@
         <v>81</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>81</v>
@@ -14498,140 +14479,23 @@
         <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>81</v>
+        <v>654</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO104">
+  <autoFilter ref="A1:AO103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14641,7 +14505,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1905,15 +1905,6 @@
   </si>
   <si>
     <t>Referencia a la observación que indica si el paciente tiene discapacidad</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo:Prevision</t>
-  </si>
-  <si>
-    <t>Prevision</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo:motivoDerivacion</t>
@@ -2380,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13465,10 +13456,10 @@
         <v>81</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>580</v>
@@ -13556,13 +13547,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>577</v>
@@ -13572,7 +13563,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>91</v>
@@ -13584,10 +13575,10 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>580</v>
@@ -13675,13 +13666,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>576</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>577</v>
@@ -13703,10 +13694,10 @@
         <v>81</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>580</v>
@@ -13794,16 +13785,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="C98" t="s" s="2">
         <v>619</v>
       </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13813,13 +13802,13 @@
         <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>620</v>
@@ -13828,10 +13817,10 @@
         <v>621</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>580</v>
+        <v>622</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13881,7 +13870,7 @@
         <v>81</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13896,13 +13885,13 @@
         <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>584</v>
+        <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
@@ -13913,14 +13902,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13939,18 +13928,20 @@
         <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>623</v>
+        <v>230</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>631</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13974,13 +13965,13 @@
         <v>81</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>81</v>
+        <v>632</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>81</v>
+        <v>633</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>81</v>
@@ -13998,7 +13989,7 @@
         <v>81</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14016,28 +14007,28 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>81</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>630</v>
+        <v>81</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14053,23 +14044,19 @@
         <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>230</v>
+        <v>637</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>631</v>
+        <v>50</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>81</v>
       </c>
@@ -14093,31 +14080,31 @@
         <v>81</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>635</v>
+        <v>81</v>
       </c>
       <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF100" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14132,27 +14119,27 @@
         <v>102</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>81</v>
+        <v>639</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>627</v>
+        <v>447</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14163,7 +14150,7 @@
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>81</v>
@@ -14172,16 +14159,16 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>640</v>
+        <v>209</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>50</v>
+        <v>643</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14232,13 +14219,13 @@
         <v>81</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>81</v>
@@ -14247,27 +14234,27 @@
         <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>642</v>
+        <v>81</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>644</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14278,7 +14265,7 @@
         <v>79</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>81</v>
@@ -14287,18 +14274,20 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>209</v>
+        <v>647</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14347,13 +14336,13 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>81</v>
@@ -14362,140 +14351,23 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>81</v>
+        <v>651</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO103" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO103">
+  <autoFilter ref="A1:AO102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14505,7 +14377,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,7 +486,7 @@
 </t>
   </si>
   <si>
-    <t>ExtBool RequiereExamen</t>
+    <t>ExtBool Requiere Examen</t>
   </si>
   <si>
     <t>ServiceRequest.extension:AtencionPreferente</t>
@@ -518,7 +518,7 @@
     <t>Programa de Resolutividad local.</t>
   </si>
   <si>
-    <t>ExtBool ResolutividadAPS</t>
+    <t>ExtBool Resolutividad APS</t>
   </si>
   <si>
     <t>ServiceRequest.extension:OrigenInterconsulta</t>

--- a/StructureDefinition-ServiceRequestLE.xlsx
+++ b/StructureDefinition-ServiceRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
